--- a/model/Output Files/Year 3.xlsx
+++ b/model/Output Files/Year 3.xlsx
@@ -578,7 +578,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>1.351480000000116</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -1151,7 +1151,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1175,51 +1175,6 @@
           <t>Retired Capacity</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>('Diesel Generator', 'Added Capacity')</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>('Diesel Generator', 'Installed Capacity')</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>('Diesel Generator', 'Retired Capacity')</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>('Owned PV', 'Added Capacity')</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>('Owned PV', 'Installed Capacity')</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>('Owned PV', 'Retired Capacity')</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>('Owned Batteries', 'Added Capacity')</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>('Owned Batteries', 'Installed Capacity')</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>('Owned Batteries', 'Retired Capacity')</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -1231,36 +1186,9 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>400</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>104</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L2" t="n">
-        <v>163</v>
-      </c>
-      <c r="M2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1274,36 +1202,9 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>400</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>104</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L3" t="n">
-        <v>163</v>
-      </c>
-      <c r="M3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1314,39 +1215,12 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>163</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>400</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>104</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1</v>
-      </c>
-      <c r="L4" t="n">
-        <v>163</v>
-      </c>
-      <c r="M4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1529,46 +1403,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>20.8</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>41.6</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>62.4</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>72.8</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>72.8</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>31.2</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>20.8</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -1615,34 +1489,34 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>62.4</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>23.4</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>72.8</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>28.6</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>21.45311702887454</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>20.8</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -1692,31 +1566,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>10.4</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>41.6</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>29.58312417100299</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>72.8</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>20.8</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>10.4</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -1853,40 +1727,40 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>28.6</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>20.8</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>23.4</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>46.8</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>62.4</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>70.2</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>62.4</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>54.6</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>46.8</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>18.2</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -1939,13 +1813,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>62.4</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -1954,16 +1828,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>72.8</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>21.45311702887454</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -2016,31 +1890,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>10.4</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>41.6</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>29.58312417100299</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>59.8</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>72.8</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>20.8</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>10.4</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2165,16 +2039,16 @@
         <v>32.5</v>
       </c>
       <c r="C2" t="n">
-        <v>32.5</v>
+        <v>19.5</v>
       </c>
       <c r="D2" t="n">
-        <v>32.5</v>
+        <v>13</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -2213,25 +2087,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>10.4</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>29.84851999999988</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>97.5</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3">
@@ -2239,23 +2113,23 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>19.5</v>
+        <v>32.5</v>
       </c>
       <c r="C3" t="n">
         <v>19.5</v>
       </c>
       <c r="D3" t="n">
+        <v>13</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
         <v>19.5</v>
       </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
@@ -2290,10 +2164,10 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>20.8</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -2302,13 +2176,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4">
@@ -2316,10 +2190,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>13</v>
+        <v>32.5</v>
       </c>
       <c r="C4" t="n">
-        <v>13</v>
+        <v>19.5</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -2331,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -2370,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -2385,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -2489,73 +2363,73 @@
         <v>189.4909090909091</v>
       </c>
       <c r="C2" t="n">
-        <v>182.9252525252525</v>
+        <v>169.7939393939394</v>
       </c>
       <c r="D2" t="n">
-        <v>169.7939393939394</v>
+        <v>156.6626262626263</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>143.5313131313131</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>130.4</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>143.27</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>171.584</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>192.176</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>215.342</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>261.674</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>323.45</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>392.948</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>470.168</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>531.944</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>585.9979999999999</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>632.3299999999999</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>650.348</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>639.8429494949495</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>609.6929292929294</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>491.5111111111111</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>393.0262626262627</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>314.2383838383839</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>261.7131313131313</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>222.3191919191919</v>
       </c>
     </row>
     <row r="3">
@@ -2563,7 +2437,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>169.7939393939394</v>
+        <v>182.9252525252525</v>
       </c>
       <c r="C3" t="n">
         <v>163.2282828282828</v>
@@ -2572,67 +2446,67 @@
         <v>150.0969696969697</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>150.0969696969697</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>150.0969696969697</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>130.4</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>130.4</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>130.4</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>192.176</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>274.544</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>367.208</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>367.208</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>367.208</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>439.28</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>439.28</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>465.02</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>486.2585858585858</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>465.2484848484848</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>333.9353535353536</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>333.9353535353536</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>333.9353535353536</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>255.1474747474747</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>255.1474747474747</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>215.7535353535353</v>
       </c>
     </row>
     <row r="4">
@@ -2640,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>156.6626262626263</v>
+        <v>169.7939393939394</v>
       </c>
       <c r="C4" t="n">
         <v>150.0969696969697</v>
@@ -2649,67 +2523,67 @@
         <v>150.0969696969697</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>150.0969696969697</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>150.0969696969697</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>130.4</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>130.4</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>130.4</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>140.696</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>181.88</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>211.167292929293</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>270.369292929293</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>270.369292929293</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>342.441292929293</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>342.441292929293</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>363.0332929292929</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>373.3292929292929</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>373.3292929292929</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>242.0161616161616</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>242.0161616161616</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>242.0161616161616</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>242.0161616161616</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.0161616161616</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>202.6222222222222</v>
       </c>
     </row>
   </sheetData>

--- a/model/Output Files/Year 3.xlsx
+++ b/model/Output Files/Year 3.xlsx
@@ -578,7 +578,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>1.351480000000116</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -1125,19 +1125,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>76376.03999999999</v>
+        <v>76326.84612799998</v>
       </c>
       <c r="C2" t="n">
         <v>200</v>
       </c>
       <c r="D2" t="n">
-        <v>9360.581764886738</v>
+        <v>9307.780929750721</v>
       </c>
       <c r="E2" t="n">
         <v>10375</v>
       </c>
       <c r="F2" t="n">
-        <v>41268.77661819105</v>
+        <v>41271.41399854876</v>
       </c>
     </row>
   </sheetData>
@@ -1486,10 +1486,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>41.6</v>
       </c>
       <c r="J3" t="n">
-        <v>62.4</v>
+        <v>11.05311702887466</v>
       </c>
       <c r="K3" t="n">
         <v>83.2</v>
@@ -1498,22 +1498,22 @@
         <v>93.59999999999999</v>
       </c>
       <c r="M3" t="n">
-        <v>23.4</v>
+        <v>104</v>
       </c>
       <c r="N3" t="n">
         <v>26</v>
       </c>
       <c r="O3" t="n">
-        <v>72.8</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>28.6</v>
+        <v>52</v>
       </c>
       <c r="Q3" t="n">
         <v>52</v>
       </c>
       <c r="R3" t="n">
-        <v>21.45311702887454</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>20.8</v>
@@ -1572,25 +1572,25 @@
         <v>41.6</v>
       </c>
       <c r="L4" t="n">
-        <v>29.58312417100299</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>83.2</v>
+        <v>23.4</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>58.18312417100302</v>
       </c>
       <c r="O4" t="n">
         <v>72.8</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>41.6</v>
       </c>
       <c r="Q4" t="n">
         <v>20.8</v>
       </c>
       <c r="R4" t="n">
-        <v>10.4</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>41.6</v>
       </c>
       <c r="J3" t="n">
-        <v>62.4</v>
+        <v>11.05311702887466</v>
       </c>
       <c r="K3" t="n">
         <v>83.2</v>
@@ -1822,22 +1822,22 @@
         <v>93.59999999999999</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>72.8</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>23.4</v>
       </c>
       <c r="Q3" t="n">
         <v>26</v>
       </c>
       <c r="R3" t="n">
-        <v>21.45311702887454</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -1896,25 +1896,25 @@
         <v>41.6</v>
       </c>
       <c r="L4" t="n">
-        <v>29.58312417100299</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>59.8</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>58.18312417100301</v>
       </c>
       <c r="O4" t="n">
         <v>72.8</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>41.6</v>
       </c>
       <c r="Q4" t="n">
         <v>20.8</v>
       </c>
       <c r="R4" t="n">
-        <v>10.4</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2090,7 +2090,7 @@
         <v>10.4</v>
       </c>
       <c r="T2" t="n">
-        <v>29.84851999999988</v>
+        <v>29.84851999999987</v>
       </c>
       <c r="U2" t="n">
         <v>117</v>
@@ -2458,34 +2458,34 @@
         <v>130.4</v>
       </c>
       <c r="I3" t="n">
-        <v>130.4</v>
+        <v>171.584</v>
       </c>
       <c r="J3" t="n">
-        <v>192.176</v>
+        <v>182.5265858585859</v>
       </c>
       <c r="K3" t="n">
-        <v>274.544</v>
+        <v>264.8945858585859</v>
       </c>
       <c r="L3" t="n">
-        <v>367.208</v>
+        <v>357.5585858585859</v>
       </c>
       <c r="M3" t="n">
-        <v>367.208</v>
+        <v>437.3525858585859</v>
       </c>
       <c r="N3" t="n">
-        <v>367.208</v>
+        <v>437.3525858585859</v>
       </c>
       <c r="O3" t="n">
-        <v>439.28</v>
+        <v>437.3525858585859</v>
       </c>
       <c r="P3" t="n">
-        <v>439.28</v>
+        <v>460.5185858585859</v>
       </c>
       <c r="Q3" t="n">
-        <v>465.02</v>
+        <v>486.2585858585859</v>
       </c>
       <c r="R3" t="n">
-        <v>486.2585858585858</v>
+        <v>486.2585858585859</v>
       </c>
       <c r="S3" t="n">
         <v>465.2484848484848</v>
@@ -2544,22 +2544,22 @@
         <v>181.88</v>
       </c>
       <c r="L4" t="n">
-        <v>211.167292929293</v>
+        <v>181.88</v>
       </c>
       <c r="M4" t="n">
-        <v>270.369292929293</v>
+        <v>181.88</v>
       </c>
       <c r="N4" t="n">
-        <v>270.369292929293</v>
+        <v>239.481292929293</v>
       </c>
       <c r="O4" t="n">
-        <v>342.441292929293</v>
+        <v>311.553292929293</v>
       </c>
       <c r="P4" t="n">
-        <v>342.441292929293</v>
+        <v>352.7372929292929</v>
       </c>
       <c r="Q4" t="n">
-        <v>363.0332929292929</v>
+        <v>373.3292929292929</v>
       </c>
       <c r="R4" t="n">
         <v>373.3292929292929</v>
@@ -3062,7 +3062,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>1.351480000000127</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>

--- a/model/Output Files/Year 3.xlsx
+++ b/model/Output Files/Year 3.xlsx
@@ -1125,19 +1125,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>76326.84612799998</v>
+        <v>77388.66797673711</v>
       </c>
       <c r="C2" t="n">
         <v>200</v>
       </c>
       <c r="D2" t="n">
-        <v>9307.780929750721</v>
+        <v>7066.221906540153</v>
       </c>
       <c r="E2" t="n">
-        <v>10375</v>
+        <v>8900</v>
       </c>
       <c r="F2" t="n">
-        <v>41271.41399854876</v>
+        <v>44765.32490869028</v>
       </c>
     </row>
   </sheetData>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>104</v>
+        <v>10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -1218,7 +1218,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -1403,46 +1403,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>20.8</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>41.6</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>62.4</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>72.8</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>83.2</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>93.59999999999999</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>93.59999999999999</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>83.2</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>72.8</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>31.2</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>20.8</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -1486,37 +1486,37 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>41.6</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>11.05311702887466</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>83.2</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>93.59999999999999</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>20.8</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -1566,28 +1566,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>10.4</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>41.6</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>23.4</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>58.18312417100302</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>72.8</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>41.6</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>20.8</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -1727,43 +1727,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>13</v>
+        <v>50.7</v>
       </c>
       <c r="H2" t="n">
-        <v>28.6</v>
+        <v>104.5</v>
       </c>
       <c r="I2" t="n">
-        <v>20.8</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>23.4</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>46.8</v>
+        <v>43</v>
       </c>
       <c r="L2" t="n">
-        <v>62.4</v>
+        <v>58.4</v>
       </c>
       <c r="M2" t="n">
-        <v>70.2</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>62.4</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>54.6</v>
+        <v>150</v>
       </c>
       <c r="Q2" t="n">
-        <v>46.8</v>
+        <v>37.13427201306111</v>
       </c>
       <c r="R2" t="n">
-        <v>18.2</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>40.4</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -1810,37 +1810,37 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>41.6</v>
+        <v>40</v>
       </c>
       <c r="J3" t="n">
-        <v>11.05311702887466</v>
+        <v>60</v>
       </c>
       <c r="K3" t="n">
-        <v>83.2</v>
+        <v>80</v>
       </c>
       <c r="L3" t="n">
-        <v>93.59999999999999</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>80.59999999999999</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="P3" t="n">
-        <v>23.4</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>35.23079277624772</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -1890,10 +1890,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>10.4</v>
+        <v>10</v>
       </c>
       <c r="K4" t="n">
-        <v>41.6</v>
+        <v>40</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -1902,19 +1902,19 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>58.18312417100301</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>72.8</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>41.6</v>
+        <v>125.3831241710019</v>
       </c>
       <c r="Q4" t="n">
-        <v>20.8</v>
+        <v>60</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2087,10 +2087,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>10.4</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>29.84851999999987</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>117</v>
@@ -2164,7 +2164,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>20.8</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>130</v>
@@ -2360,76 +2360,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>189.4909090909091</v>
+        <v>179.0909090909106</v>
       </c>
       <c r="C2" t="n">
-        <v>169.7939393939394</v>
+        <v>159.3939393939416</v>
       </c>
       <c r="D2" t="n">
-        <v>156.6626262626263</v>
+        <v>146.2626262626277</v>
       </c>
       <c r="E2" t="n">
-        <v>143.5313131313131</v>
+        <v>133.1313131313139</v>
       </c>
       <c r="F2" t="n">
-        <v>130.4</v>
+        <v>120</v>
       </c>
       <c r="G2" t="n">
-        <v>143.27</v>
+        <v>170.193</v>
       </c>
       <c r="H2" t="n">
-        <v>171.584</v>
+        <v>273.648</v>
       </c>
       <c r="I2" t="n">
-        <v>192.176</v>
+        <v>273.648</v>
       </c>
       <c r="J2" t="n">
-        <v>215.342</v>
+        <v>273.648</v>
       </c>
       <c r="K2" t="n">
-        <v>261.674</v>
+        <v>316.218</v>
       </c>
       <c r="L2" t="n">
-        <v>323.45</v>
+        <v>374.034</v>
       </c>
       <c r="M2" t="n">
-        <v>392.948</v>
+        <v>374.034</v>
       </c>
       <c r="N2" t="n">
-        <v>470.168</v>
+        <v>374.034</v>
       </c>
       <c r="O2" t="n">
-        <v>531.944</v>
+        <v>374.034</v>
       </c>
       <c r="P2" t="n">
-        <v>585.9979999999999</v>
+        <v>522.534</v>
       </c>
       <c r="Q2" t="n">
-        <v>632.3299999999999</v>
+        <v>559.2969292929305</v>
       </c>
       <c r="R2" t="n">
-        <v>650.348</v>
+        <v>559.2969292929305</v>
       </c>
       <c r="S2" t="n">
-        <v>639.8429494949495</v>
+        <v>599.2929292929305</v>
       </c>
       <c r="T2" t="n">
-        <v>609.6929292929294</v>
+        <v>599.2929292929305</v>
       </c>
       <c r="U2" t="n">
-        <v>491.5111111111111</v>
+        <v>481.1111111111111</v>
       </c>
       <c r="V2" t="n">
-        <v>393.0262626262627</v>
+        <v>382.6262626262645</v>
       </c>
       <c r="W2" t="n">
-        <v>314.2383838383839</v>
+        <v>303.838383838385</v>
       </c>
       <c r="X2" t="n">
-        <v>261.7131313131313</v>
+        <v>251.3131313131332</v>
       </c>
       <c r="Y2" t="n">
-        <v>222.3191919191919</v>
+        <v>211.9191919191934</v>
       </c>
     </row>
     <row r="3">
@@ -2437,76 +2437,76 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>182.9252525252525</v>
+        <v>172.5252525252518</v>
       </c>
       <c r="C3" t="n">
-        <v>163.2282828282828</v>
+        <v>152.8282828282828</v>
       </c>
       <c r="D3" t="n">
-        <v>150.0969696969697</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="E3" t="n">
-        <v>150.0969696969697</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="F3" t="n">
-        <v>150.0969696969697</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="G3" t="n">
-        <v>130.4</v>
+        <v>120</v>
       </c>
       <c r="H3" t="n">
-        <v>130.4</v>
+        <v>120</v>
       </c>
       <c r="I3" t="n">
-        <v>171.584</v>
+        <v>159.6</v>
       </c>
       <c r="J3" t="n">
-        <v>182.5265858585859</v>
+        <v>219</v>
       </c>
       <c r="K3" t="n">
-        <v>264.8945858585859</v>
+        <v>298.2</v>
       </c>
       <c r="L3" t="n">
-        <v>357.5585858585859</v>
+        <v>298.2</v>
       </c>
       <c r="M3" t="n">
-        <v>437.3525858585859</v>
+        <v>298.2</v>
       </c>
       <c r="N3" t="n">
-        <v>437.3525858585859</v>
+        <v>298.2</v>
       </c>
       <c r="O3" t="n">
-        <v>437.3525858585859</v>
+        <v>367.5</v>
       </c>
       <c r="P3" t="n">
-        <v>460.5185858585859</v>
+        <v>367.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>486.2585858585859</v>
+        <v>390.27</v>
       </c>
       <c r="R3" t="n">
-        <v>486.2585858585859</v>
+        <v>419.97</v>
       </c>
       <c r="S3" t="n">
-        <v>465.2484848484848</v>
+        <v>454.8484848484852</v>
       </c>
       <c r="T3" t="n">
-        <v>333.9353535353536</v>
+        <v>323.5353535353539</v>
       </c>
       <c r="U3" t="n">
-        <v>333.9353535353536</v>
+        <v>323.5353535353539</v>
       </c>
       <c r="V3" t="n">
-        <v>333.9353535353536</v>
+        <v>323.5353535353539</v>
       </c>
       <c r="W3" t="n">
-        <v>255.1474747474747</v>
+        <v>244.7474747474744</v>
       </c>
       <c r="X3" t="n">
-        <v>255.1474747474747</v>
+        <v>244.7474747474744</v>
       </c>
       <c r="Y3" t="n">
-        <v>215.7535353535353</v>
+        <v>205.3535353535346</v>
       </c>
     </row>
     <row r="4">
@@ -2514,76 +2514,76 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>169.7939393939394</v>
+        <v>159.3939393939379</v>
       </c>
       <c r="C4" t="n">
-        <v>150.0969696969697</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="D4" t="n">
-        <v>150.0969696969697</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="E4" t="n">
-        <v>150.0969696969697</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="F4" t="n">
-        <v>150.0969696969697</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="G4" t="n">
-        <v>130.4</v>
+        <v>120</v>
       </c>
       <c r="H4" t="n">
-        <v>130.4</v>
+        <v>120</v>
       </c>
       <c r="I4" t="n">
-        <v>130.4</v>
+        <v>120</v>
       </c>
       <c r="J4" t="n">
-        <v>140.696</v>
+        <v>129.9</v>
       </c>
       <c r="K4" t="n">
-        <v>181.88</v>
+        <v>169.5</v>
       </c>
       <c r="L4" t="n">
-        <v>181.88</v>
+        <v>169.5</v>
       </c>
       <c r="M4" t="n">
-        <v>181.88</v>
+        <v>169.5</v>
       </c>
       <c r="N4" t="n">
-        <v>239.481292929293</v>
+        <v>169.5</v>
       </c>
       <c r="O4" t="n">
-        <v>311.553292929293</v>
+        <v>169.5</v>
       </c>
       <c r="P4" t="n">
-        <v>352.7372929292929</v>
+        <v>293.6292929292919</v>
       </c>
       <c r="Q4" t="n">
-        <v>373.3292929292929</v>
+        <v>353.0292929292918</v>
       </c>
       <c r="R4" t="n">
-        <v>373.3292929292929</v>
+        <v>362.9292929292918</v>
       </c>
       <c r="S4" t="n">
-        <v>373.3292929292929</v>
+        <v>362.9292929292918</v>
       </c>
       <c r="T4" t="n">
-        <v>242.0161616161616</v>
+        <v>231.6161616161605</v>
       </c>
       <c r="U4" t="n">
-        <v>242.0161616161616</v>
+        <v>231.6161616161605</v>
       </c>
       <c r="V4" t="n">
-        <v>242.0161616161616</v>
+        <v>231.6161616161605</v>
       </c>
       <c r="W4" t="n">
-        <v>242.0161616161616</v>
+        <v>231.6161616161605</v>
       </c>
       <c r="X4" t="n">
-        <v>242.0161616161616</v>
+        <v>231.6161616161605</v>
       </c>
       <c r="Y4" t="n">
-        <v>202.6222222222222</v>
+        <v>192.2222222222222</v>
       </c>
     </row>
   </sheetData>
@@ -3050,7 +3050,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>178.6</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -3062,7 +3062,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>1.351480000000127</v>
+        <v>2</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -3136,7 +3136,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -3204,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>125.3831241710019</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -3347,46 +3347,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>19.7</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>39.5</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>31.2</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>79.2</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>23.4</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>31.2</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>63.13427201306111</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>33.8</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>28.4</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -3430,37 +3430,37 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>23.4</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>28.6</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>18.4</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -3510,10 +3510,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -3531,10 +3531,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -3671,10 +3671,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>38.8</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -3707,10 +3707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>53.6</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -3784,7 +3784,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>10.83079277624773</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -3843,7 +3843,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>23.4</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -3855,7 +3855,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>

--- a/model/Output Files/Year 3.xlsx
+++ b/model/Output Files/Year 3.xlsx
@@ -20,6 +20,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Costs and Revenues" sheetId="11" state="visible" r:id="rId11"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Capacities" sheetId="12" state="visible" r:id="rId12"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Connected Households" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Yearly demand" sheetId="14" state="visible" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1295,6 +1296,330 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Y4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-32.5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-19.5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-13</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-13</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-13</v>
+      </c>
+      <c r="G2" t="n">
+        <v>142.5</v>
+      </c>
+      <c r="H2" t="n">
+        <v>291.5</v>
+      </c>
+      <c r="I2" t="n">
+        <v>327</v>
+      </c>
+      <c r="J2" t="n">
+        <v>388.5</v>
+      </c>
+      <c r="K2" t="n">
+        <v>502</v>
+      </c>
+      <c r="L2" t="n">
+        <v>596</v>
+      </c>
+      <c r="M2" t="n">
+        <v>670.5</v>
+      </c>
+      <c r="N2" t="n">
+        <v>745</v>
+      </c>
+      <c r="O2" t="n">
+        <v>651</v>
+      </c>
+      <c r="P2" t="n">
+        <v>576.5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>502</v>
+      </c>
+      <c r="R2" t="n">
+        <v>320.5</v>
+      </c>
+      <c r="S2" t="n">
+        <v>139</v>
+      </c>
+      <c r="T2" t="n">
+        <v>32</v>
+      </c>
+      <c r="U2" t="n">
+        <v>-117</v>
+      </c>
+      <c r="V2" t="n">
+        <v>-97.5</v>
+      </c>
+      <c r="W2" t="n">
+        <v>-78</v>
+      </c>
+      <c r="X2" t="n">
+        <v>-52</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>-39</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>-32.5</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-19.5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-13</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-19.5</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>324</v>
+      </c>
+      <c r="J3" t="n">
+        <v>486</v>
+      </c>
+      <c r="K3" t="n">
+        <v>648</v>
+      </c>
+      <c r="L3" t="n">
+        <v>729</v>
+      </c>
+      <c r="M3" t="n">
+        <v>751.5</v>
+      </c>
+      <c r="N3" t="n">
+        <v>583</v>
+      </c>
+      <c r="O3" t="n">
+        <v>567</v>
+      </c>
+      <c r="P3" t="n">
+        <v>333.5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>340</v>
+      </c>
+      <c r="R3" t="n">
+        <v>243</v>
+      </c>
+      <c r="S3" t="n">
+        <v>57.99999999999999</v>
+      </c>
+      <c r="T3" t="n">
+        <v>-130</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>-78</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>-39</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-32.5</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-19.5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-19.5</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>81</v>
+      </c>
+      <c r="K4" t="n">
+        <v>324</v>
+      </c>
+      <c r="L4" t="n">
+        <v>567</v>
+      </c>
+      <c r="M4" t="n">
+        <v>589.5</v>
+      </c>
+      <c r="N4" t="n">
+        <v>648</v>
+      </c>
+      <c r="O4" t="n">
+        <v>567</v>
+      </c>
+      <c r="P4" t="n">
+        <v>324</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>162</v>
+      </c>
+      <c r="R4" t="n">
+        <v>81</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>-130</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>-39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/model/Output Files/Year 3.xlsx
+++ b/model/Output Files/Year 3.xlsx
@@ -1129,16 +1129,16 @@
         <v>77388.66797673711</v>
       </c>
       <c r="C2" t="n">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="D2" t="n">
-        <v>7066.221906540153</v>
+        <v>9992.97670278544</v>
       </c>
       <c r="E2" t="n">
-        <v>8900</v>
+        <v>9770</v>
       </c>
       <c r="F2" t="n">
-        <v>44765.32490869028</v>
+        <v>40673.02603842094</v>
       </c>
     </row>
   </sheetData>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -1216,7 +1216,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C4" t="n">
         <v>150</v>
@@ -1728,46 +1728,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>13.6</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>27.2</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>40.8</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>54.4</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>61.2</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>61.2</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>54.4</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>20.4</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>13.6</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -1811,37 +1811,37 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>27.2</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>40.8</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>54.4</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>61.2</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>54.4</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>20.4</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>13.6</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -1891,31 +1891,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>27.2</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>37.58312417100181</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>54.4</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>27.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>13.6</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2052,43 +2052,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>50.7</v>
+        <v>64.3</v>
       </c>
       <c r="H2" t="n">
-        <v>104.5</v>
+        <v>53.7</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>51.6</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="K2" t="n">
-        <v>43</v>
+        <v>21.6</v>
       </c>
       <c r="L2" t="n">
-        <v>58.4</v>
+        <v>133.7342720130581</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>37.8</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="P2" t="n">
-        <v>150</v>
+        <v>25.8</v>
       </c>
       <c r="Q2" t="n">
-        <v>37.13427201306111</v>
+        <v>21.6</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="S2" t="n">
-        <v>40.4</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -2135,37 +2135,37 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>40</v>
+        <v>27.43079277624771</v>
       </c>
       <c r="J3" t="n">
-        <v>60</v>
+        <v>40.8</v>
       </c>
       <c r="K3" t="n">
-        <v>80</v>
+        <v>54.4</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>61.2</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>44.6</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>28.4</v>
       </c>
       <c r="O3" t="n">
-        <v>70</v>
+        <v>47.6</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="Q3" t="n">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="R3" t="n">
-        <v>30</v>
+        <v>20.4</v>
       </c>
       <c r="S3" t="n">
-        <v>35.23079277624772</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -2215,31 +2215,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>10</v>
+        <v>6.8</v>
       </c>
       <c r="K4" t="n">
-        <v>40</v>
+        <v>27.2</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>14.1831241710018</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>54.4</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="P4" t="n">
-        <v>125.3831241710019</v>
+        <v>27.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>60</v>
+        <v>13.6</v>
       </c>
       <c r="R4" t="n">
-        <v>10</v>
+        <v>6.8</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2700,40 +2700,40 @@
         <v>120</v>
       </c>
       <c r="G2" t="n">
-        <v>170.193</v>
+        <v>183.657</v>
       </c>
       <c r="H2" t="n">
-        <v>273.648</v>
+        <v>236.82</v>
       </c>
       <c r="I2" t="n">
-        <v>273.648</v>
+        <v>287.9040000000029</v>
       </c>
       <c r="J2" t="n">
-        <v>273.648</v>
+        <v>289.6860000000029</v>
       </c>
       <c r="K2" t="n">
-        <v>316.218</v>
+        <v>311.0700000000029</v>
       </c>
       <c r="L2" t="n">
-        <v>374.034</v>
+        <v>443.4669292929304</v>
       </c>
       <c r="M2" t="n">
-        <v>374.034</v>
+        <v>480.8889292929304</v>
       </c>
       <c r="N2" t="n">
-        <v>374.034</v>
+        <v>522.4689292929304</v>
       </c>
       <c r="O2" t="n">
-        <v>374.034</v>
+        <v>552.1689292929304</v>
       </c>
       <c r="P2" t="n">
-        <v>522.534</v>
+        <v>577.7109292929305</v>
       </c>
       <c r="Q2" t="n">
-        <v>559.2969292929305</v>
+        <v>599.0949292929305</v>
       </c>
       <c r="R2" t="n">
-        <v>559.2969292929305</v>
+        <v>599.2929292929305</v>
       </c>
       <c r="S2" t="n">
         <v>599.2929292929305</v>
@@ -2783,34 +2783,34 @@
         <v>120</v>
       </c>
       <c r="I3" t="n">
-        <v>159.6</v>
+        <v>147.1564848484852</v>
       </c>
       <c r="J3" t="n">
-        <v>219</v>
+        <v>187.5484848484852</v>
       </c>
       <c r="K3" t="n">
-        <v>298.2</v>
+        <v>241.4044848484852</v>
       </c>
       <c r="L3" t="n">
-        <v>298.2</v>
+        <v>301.9924848484852</v>
       </c>
       <c r="M3" t="n">
-        <v>298.2</v>
+        <v>346.1464848484852</v>
       </c>
       <c r="N3" t="n">
-        <v>298.2</v>
+        <v>374.2624848484852</v>
       </c>
       <c r="O3" t="n">
-        <v>367.5</v>
+        <v>421.3864848484852</v>
       </c>
       <c r="P3" t="n">
-        <v>367.5</v>
+        <v>426.7324848484852</v>
       </c>
       <c r="Q3" t="n">
-        <v>390.27</v>
+        <v>434.6524848484852</v>
       </c>
       <c r="R3" t="n">
-        <v>419.97</v>
+        <v>454.8484848484852</v>
       </c>
       <c r="S3" t="n">
         <v>454.8484848484852</v>
@@ -2863,28 +2863,28 @@
         <v>120</v>
       </c>
       <c r="J4" t="n">
-        <v>129.9</v>
+        <v>126.732</v>
       </c>
       <c r="K4" t="n">
-        <v>169.5</v>
+        <v>153.66</v>
       </c>
       <c r="L4" t="n">
-        <v>169.5</v>
+        <v>200.784</v>
       </c>
       <c r="M4" t="n">
-        <v>169.5</v>
+        <v>214.8252929292918</v>
       </c>
       <c r="N4" t="n">
-        <v>169.5</v>
+        <v>268.6812929292918</v>
       </c>
       <c r="O4" t="n">
-        <v>169.5</v>
+        <v>315.8052929292918</v>
       </c>
       <c r="P4" t="n">
-        <v>293.6292929292919</v>
+        <v>342.7332929292918</v>
       </c>
       <c r="Q4" t="n">
-        <v>353.0292929292918</v>
+        <v>356.1972929292918</v>
       </c>
       <c r="R4" t="n">
         <v>362.9292929292918</v>
@@ -3363,7 +3363,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>100.1342720130581</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -3375,7 +3375,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>178.6</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -3384,10 +3384,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>21.2</v>
       </c>
       <c r="T2" t="n">
-        <v>2</v>
+        <v>20.4</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -3431,7 +3431,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>0.2307927762477106</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -3461,7 +3461,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>47.6</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -3529,7 +3529,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>125.3831241710019</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -3678,37 +3678,37 @@
         <v>39.5</v>
       </c>
       <c r="I2" t="n">
-        <v>31.2</v>
+        <v>48.8</v>
       </c>
       <c r="J2" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>79.2</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>23.4</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>31.2</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>63.13427201306111</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>33.8</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>28.4</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -3755,34 +3755,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>23.4</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>28.6</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>18.4</v>
@@ -3835,10 +3835,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -3856,10 +3856,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -3999,7 +3999,7 @@
         <v>38.8</v>
       </c>
       <c r="H2" t="n">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -4032,10 +4032,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>53.6</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -4109,7 +4109,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>10.83079277624773</v>
+        <v>9.6</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -4168,7 +4168,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>23.4</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>

--- a/model/Output Files/Year 3.xlsx
+++ b/model/Output Files/Year 3.xlsx
@@ -1126,19 +1126,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>77388.66797673712</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>9992.97670278544</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>9770</v>
+        <v>8150</v>
       </c>
       <c r="F2" t="n">
-        <v>40673.02603842095</v>
+        <v>-5959.209757602744</v>
       </c>
     </row>
   </sheetData>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -1216,10 +1216,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10</v>
+        <v>-0</v>
       </c>
       <c r="C4" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -1236,7 +1236,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1245,50 +1245,30 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="n">
-        <v>14</v>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Type 1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Type 2</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Type 3</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Type 4</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Type 5</t>
+        </is>
       </c>
     </row>
     <row r="2">
@@ -1296,249 +1276,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>15</v>
-      </c>
-      <c r="G2" t="n">
-        <v>15</v>
-      </c>
-      <c r="H2" t="n">
-        <v>15</v>
-      </c>
-      <c r="I2" t="n">
-        <v>15</v>
-      </c>
-      <c r="J2" t="n">
-        <v>15</v>
-      </c>
-      <c r="K2" t="n">
-        <v>15</v>
-      </c>
-      <c r="L2" t="n">
-        <v>15</v>
-      </c>
-      <c r="M2" t="n">
-        <v>15</v>
-      </c>
-      <c r="N2" t="n">
-        <v>15</v>
-      </c>
-      <c r="O2" t="n">
-        <v>15</v>
-      </c>
-      <c r="P2" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>34</v>
-      </c>
-      <c r="C3" t="n">
-        <v>34</v>
-      </c>
-      <c r="D3" t="n">
-        <v>34</v>
-      </c>
-      <c r="E3" t="n">
-        <v>34</v>
-      </c>
-      <c r="F3" t="n">
-        <v>34</v>
-      </c>
-      <c r="G3" t="n">
-        <v>34</v>
-      </c>
-      <c r="H3" t="n">
-        <v>34</v>
-      </c>
-      <c r="I3" t="n">
-        <v>34</v>
-      </c>
-      <c r="J3" t="n">
-        <v>34</v>
-      </c>
-      <c r="K3" t="n">
-        <v>34</v>
-      </c>
-      <c r="L3" t="n">
-        <v>34</v>
-      </c>
-      <c r="M3" t="n">
-        <v>34</v>
-      </c>
-      <c r="N3" t="n">
-        <v>34</v>
-      </c>
-      <c r="O3" t="n">
-        <v>34</v>
-      </c>
-      <c r="P3" t="n">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4</v>
-      </c>
-      <c r="E5" t="n">
-        <v>4</v>
-      </c>
-      <c r="F5" t="n">
-        <v>4</v>
-      </c>
-      <c r="G5" t="n">
-        <v>4</v>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-      <c r="I5" t="n">
-        <v>4</v>
-      </c>
-      <c r="J5" t="n">
-        <v>4</v>
-      </c>
-      <c r="K5" t="n">
-        <v>4</v>
-      </c>
-      <c r="L5" t="n">
-        <v>4</v>
-      </c>
-      <c r="M5" t="n">
-        <v>4</v>
-      </c>
-      <c r="N5" t="n">
-        <v>4</v>
-      </c>
-      <c r="O5" t="n">
-        <v>4</v>
-      </c>
-      <c r="P5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>11</v>
-      </c>
-      <c r="C6" t="n">
-        <v>11</v>
-      </c>
-      <c r="D6" t="n">
-        <v>11</v>
-      </c>
-      <c r="E6" t="n">
-        <v>11</v>
-      </c>
-      <c r="F6" t="n">
-        <v>11</v>
-      </c>
-      <c r="G6" t="n">
-        <v>11</v>
-      </c>
-      <c r="H6" t="n">
-        <v>11</v>
-      </c>
-      <c r="I6" t="n">
-        <v>11</v>
-      </c>
-      <c r="J6" t="n">
-        <v>11</v>
-      </c>
-      <c r="K6" t="n">
-        <v>11</v>
-      </c>
-      <c r="L6" t="n">
-        <v>11</v>
-      </c>
-      <c r="M6" t="n">
-        <v>11</v>
-      </c>
-      <c r="N6" t="n">
-        <v>11</v>
-      </c>
-      <c r="O6" t="n">
-        <v>11</v>
-      </c>
-      <c r="P6" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1639,76 +1389,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-32.5</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>-19.5</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-13</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>-13</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>-13</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>142.5</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>291.5</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>327</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>388.5</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>502</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>596</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>670.5</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>745</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>651</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>576.5</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>502</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>320.5</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>139</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>-117</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>-97.5</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>-78</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>-52</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>-39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1716,13 +1466,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-32.5</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>-19.5</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -1731,46 +1481,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>-19.5</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>324</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>486</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>648</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>729</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>751.5</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>583</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>567</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>333.5</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>340</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>243</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>57.99999999999999</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>-130</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -1779,13 +1529,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>-78</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>-39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1793,10 +1543,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-32.5</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>-19.5</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -1808,7 +1558,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>-19.5</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -1817,37 +1567,37 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>324</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>567</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>589.5</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>648</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>567</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>324</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>162</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>-130</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -1862,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>-39</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1978,46 +1728,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>13.6</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>27.2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>40.8</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>47.6</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>54.4</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>61.2</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>61.2</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>54.4</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>47.6</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>20.4</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>13.6</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -2061,37 +1811,37 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>27.2</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>40.8</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>54.4</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>61.2</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>54.4</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>47.6</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.4</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>13.6</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -2144,28 +1894,28 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>27.2</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>37.5831241710018</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>54.4</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>54.4</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>47.6</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>27.2</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.6</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>6.8</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2302,46 +2052,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>5.8</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>14.2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>70.03427201305777</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>33.6</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>37.8</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>104.7</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>21.6</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>11.6</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -2385,34 +2135,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>27.2</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>40.8</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>54.4</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>61.2</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>44.6</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>28.4</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>47.6</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>5.4</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.63079277624771</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -2468,28 +2218,28 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>27.2</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>37.5831241710018</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>54.4</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>47.6</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>27.2</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.6</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>6.8</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2611,19 +2361,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>32.5</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -2668,19 +2418,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>117</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>97.5</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -2688,13 +2438,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>32.5</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -2703,7 +2453,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -2742,7 +2492,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -2751,13 +2501,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -2765,10 +2515,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>32.5</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -2780,7 +2530,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -2819,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -2834,7 +2584,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2935,76 +2685,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>179.7979797979801</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>160.1010101010111</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>146.9696969696973</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>133.8383838383834</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>120.7070707070695</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>126.4490707070695</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>140.5070707070695</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>143.2790707070695</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>145.0610707070695</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>214.3949999999967</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>247.6589999999967</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>285.0809999999967</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>433.5809999999967</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>463.2809999999967</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>566.934</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>588.318</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>588.516</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>588.516</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>481.8181818181826</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>383.3333333333333</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>304.5454545454545</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>252.0202020202027</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>212.6262626262629</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -3012,76 +2762,76 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>317.6767676767665</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>297.9797979797976</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>284.8484848484837</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>284.8484848484837</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>284.8484848484837</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>265.1515151515148</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>265.1515151515148</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>292.0795151515148</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>332.4715151515148</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>386.3275151515148</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>446.9155151515148</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>491.0695151515148</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>519.1855151515148</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>566.3095151515148</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>571.6555151515148</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>579.5755151515148</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>468.6868686868687</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>468.6868686868687</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>468.6868686868687</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>389.8989898989892</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>389.8989898989892</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>350.5050505050494</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -3089,76 +2839,76 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>159.3939393939379</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>139.6969696969689</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>139.6969696969689</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>139.6969696969689</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>139.6969696969689</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>146.928</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>184.1352929292918</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>214.8252929292918</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>268.6812929292918</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>315.8052929292918</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>342.7332929292918</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>356.1972929292918</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>362.9292929292918</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>362.9292929292918</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>231.6161616161605</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>231.6161616161605</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>231.6161616161605</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>231.6161616161605</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>231.6161616161605</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>192.2222222222222</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3610,7 +3360,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>48.43427201305778</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -3619,7 +3369,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -3708,10 +3458,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.2307927762476972</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -3949,7 +3699,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>78.90000000000001</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -3958,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>21.2</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -4285,7 +4035,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>

--- a/model/Output Files/Year 3.xlsx
+++ b/model/Output Files/Year 3.xlsx
@@ -1126,19 +1126,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>77388.66797673711</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>9992.97670278544</v>
       </c>
       <c r="E2" t="n">
-        <v>8150</v>
+        <v>9770</v>
       </c>
       <c r="F2" t="n">
-        <v>-5959.209757602744</v>
+        <v>40673.02603842094</v>
       </c>
     </row>
   </sheetData>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -1216,10 +1216,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0</v>
+        <v>10</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -1276,19 +1276,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1389,76 +1389,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-32.5</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-19.5</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-13</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>-13</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-13</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>142.5</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>291.5</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>327</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>388.5</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>502</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>596</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>670.5</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>745</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>651</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>576.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>502</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>320.5</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>-117</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>-97.5</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>-78</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>-52</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>-39</v>
       </c>
     </row>
     <row r="3">
@@ -1466,13 +1466,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-32.5</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-19.5</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-13</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -1481,46 +1481,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-19.5</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>324</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>486</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>648</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>729</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>751.5</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>583</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>567</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>333.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>340</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>243</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>57.99999999999999</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>-130</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -1529,13 +1529,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>-78</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>-39</v>
       </c>
     </row>
     <row r="4">
@@ -1543,10 +1543,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>-32.5</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-19.5</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -1558,7 +1558,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-19.5</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -1567,37 +1567,37 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>324</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>567</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>589.5</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>648</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>567</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>324</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>-130</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -1612,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>-39</v>
       </c>
     </row>
   </sheetData>
@@ -1728,46 +1728,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>13.6</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>27.2</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>40.8</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>54.4</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>61.2</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>61.2</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>54.4</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>20.4</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>13.6</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -1811,37 +1811,37 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>27.2</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>40.8</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>54.4</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>61.2</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>54.4</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>20.4</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>13.6</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -1891,31 +1891,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>27.2</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>37.58312417100181</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>54.4</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>27.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>13.6</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2052,40 +2052,40 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>64.3</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>53.7</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>51.6</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>21.6</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>133.7342720130581</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>37.8</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>25.8</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>21.6</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -2135,34 +2135,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>27.43079277624771</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>40.8</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>54.4</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>61.2</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>44.6</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>28.4</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>20.4</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -2215,31 +2215,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>27.2</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>14.1831241710018</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>54.4</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>27.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>13.6</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2361,19 +2361,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>32.5</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -2418,19 +2418,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>97.5</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3">
@@ -2438,13 +2438,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>32.5</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -2453,7 +2453,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -2492,7 +2492,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -2501,13 +2501,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4">
@@ -2515,10 +2515,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>32.5</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -2569,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -2584,7 +2584,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -2685,76 +2685,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>179.0909090909106</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>159.3939393939416</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>146.2626262626277</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>133.1313131313139</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>183.657</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>236.82</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>287.9040000000029</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>289.6860000000029</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>311.0700000000029</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>443.4669292929304</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>480.8889292929304</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>522.4689292929304</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>552.1689292929304</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>577.7109292929305</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>599.0949292929305</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>599.2929292929305</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>599.2929292929305</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>599.2929292929305</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>481.1111111111111</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>382.6262626262645</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>303.838383838385</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>251.3131313131332</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>211.9191919191934</v>
       </c>
     </row>
     <row r="3">
@@ -2762,76 +2762,76 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>172.5252525252518</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>152.8282828282828</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>147.1564848484852</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>187.5484848484852</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>241.4044848484852</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>301.9924848484852</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>346.1464848484852</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>374.2624848484852</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>421.3864848484852</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>426.7324848484852</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>434.6524848484852</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>454.8484848484852</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>454.8484848484852</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>323.5353535353539</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>323.5353535353539</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>323.5353535353539</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>244.7474747474744</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>244.7474747474744</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.3535353535346</v>
       </c>
     </row>
     <row r="4">
@@ -2839,76 +2839,76 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>159.3939393939379</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>126.732</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>153.66</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>200.784</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>214.8252929292918</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>268.6812929292918</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>315.8052929292918</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>342.7332929292918</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>356.1972929292918</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>362.9292929292918</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>362.9292929292918</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>231.6161616161605</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>231.6161616161605</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>231.6161616161605</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>231.6161616161605</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>231.6161616161605</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>192.2222222222222</v>
       </c>
     </row>
   </sheetData>
@@ -3363,7 +3363,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>100.1342720130581</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -3384,10 +3384,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>21.2</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>20.4</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -3431,7 +3431,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>0.2307927762477106</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -3672,13 +3672,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>19.7</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>39.5</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>48.8</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -3785,7 +3785,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>18.4</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -3996,7 +3996,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>38.8</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -4109,7 +4109,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>

--- a/model/Output Files/Year 3.xlsx
+++ b/model/Output Files/Year 3.xlsx
@@ -1126,19 +1126,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>77388.66797673711</v>
+        <v>77388.6679767371</v>
       </c>
       <c r="C2" t="n">
         <v>2000</v>
       </c>
       <c r="D2" t="n">
-        <v>9992.97670278544</v>
+        <v>14091.39863177228</v>
       </c>
       <c r="E2" t="n">
-        <v>9770</v>
+        <v>8900</v>
       </c>
       <c r="F2" t="n">
-        <v>40673.02603842094</v>
+        <v>38312.43174874276</v>
       </c>
     </row>
   </sheetData>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -1728,46 +1728,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>13.6</v>
+        <v>2</v>
       </c>
       <c r="H2" t="n">
-        <v>27.2</v>
+        <v>4</v>
       </c>
       <c r="I2" t="n">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="J2" t="n">
-        <v>40.8</v>
+        <v>6</v>
       </c>
       <c r="K2" t="n">
-        <v>47.6</v>
+        <v>7</v>
       </c>
       <c r="L2" t="n">
-        <v>54.4</v>
+        <v>8</v>
       </c>
       <c r="M2" t="n">
-        <v>61.2</v>
+        <v>9</v>
       </c>
       <c r="N2" t="n">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="O2" t="n">
-        <v>61.2</v>
+        <v>9</v>
       </c>
       <c r="P2" t="n">
-        <v>54.4</v>
+        <v>8</v>
       </c>
       <c r="Q2" t="n">
-        <v>47.6</v>
+        <v>7</v>
       </c>
       <c r="R2" t="n">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="S2" t="n">
-        <v>20.4</v>
+        <v>3</v>
       </c>
       <c r="T2" t="n">
-        <v>13.6</v>
+        <v>2</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -1811,37 +1811,37 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>27.2</v>
+        <v>4</v>
       </c>
       <c r="J3" t="n">
-        <v>40.8</v>
+        <v>6</v>
       </c>
       <c r="K3" t="n">
-        <v>54.4</v>
+        <v>8</v>
       </c>
       <c r="L3" t="n">
-        <v>61.2</v>
+        <v>9</v>
       </c>
       <c r="M3" t="n">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="N3" t="n">
-        <v>54.4</v>
+        <v>8</v>
       </c>
       <c r="O3" t="n">
-        <v>47.6</v>
+        <v>7</v>
       </c>
       <c r="P3" t="n">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="Q3" t="n">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="R3" t="n">
-        <v>20.4</v>
+        <v>3</v>
       </c>
       <c r="S3" t="n">
-        <v>13.6</v>
+        <v>2</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -1891,31 +1891,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>6.8</v>
+        <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>27.2</v>
+        <v>4</v>
       </c>
       <c r="L4" t="n">
-        <v>47.6</v>
+        <v>7</v>
       </c>
       <c r="M4" t="n">
-        <v>37.58312417100181</v>
+        <v>8</v>
       </c>
       <c r="N4" t="n">
-        <v>54.4</v>
+        <v>8</v>
       </c>
       <c r="O4" t="n">
-        <v>47.6</v>
+        <v>7</v>
       </c>
       <c r="P4" t="n">
-        <v>27.2</v>
+        <v>4</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.6</v>
+        <v>2</v>
       </c>
       <c r="R4" t="n">
-        <v>6.8</v>
+        <v>1</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2052,43 +2052,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>64.3</v>
+        <v>52.7</v>
       </c>
       <c r="H2" t="n">
-        <v>53.7</v>
+        <v>30.5</v>
       </c>
       <c r="I2" t="n">
-        <v>51.6</v>
+        <v>22.6</v>
       </c>
       <c r="J2" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>21.6</v>
+        <v>34.93427201306108</v>
       </c>
       <c r="L2" t="n">
-        <v>133.7342720130581</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>37.8</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="P2" t="n">
-        <v>25.8</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>21.6</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0.2</v>
+        <v>150</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>43.4</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -2135,37 +2135,37 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>27.43079277624771</v>
+        <v>4</v>
       </c>
       <c r="J3" t="n">
-        <v>40.8</v>
+        <v>66</v>
       </c>
       <c r="K3" t="n">
-        <v>54.4</v>
+        <v>8</v>
       </c>
       <c r="L3" t="n">
-        <v>61.2</v>
+        <v>9</v>
       </c>
       <c r="M3" t="n">
-        <v>44.6</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>28.4</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>47.6</v>
+        <v>7</v>
       </c>
       <c r="P3" t="n">
-        <v>5.4</v>
+        <v>150</v>
       </c>
       <c r="Q3" t="n">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="R3" t="n">
-        <v>20.4</v>
+        <v>33</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>33.2307927762477</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -2215,31 +2215,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>6.8</v>
+        <v>31</v>
       </c>
       <c r="K4" t="n">
-        <v>27.2</v>
+        <v>4</v>
       </c>
       <c r="L4" t="n">
-        <v>47.6</v>
+        <v>138.3831241710018</v>
       </c>
       <c r="M4" t="n">
-        <v>14.1831241710018</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>54.4</v>
+        <v>8</v>
       </c>
       <c r="O4" t="n">
-        <v>47.6</v>
+        <v>7</v>
       </c>
       <c r="P4" t="n">
-        <v>27.2</v>
+        <v>4</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.6</v>
+        <v>22</v>
       </c>
       <c r="R4" t="n">
-        <v>6.8</v>
+        <v>31</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2700,40 +2700,40 @@
         <v>120</v>
       </c>
       <c r="G2" t="n">
-        <v>183.657</v>
+        <v>172.173</v>
       </c>
       <c r="H2" t="n">
-        <v>236.82</v>
+        <v>202.368</v>
       </c>
       <c r="I2" t="n">
-        <v>287.9040000000029</v>
+        <v>224.742</v>
       </c>
       <c r="J2" t="n">
-        <v>289.6860000000029</v>
+        <v>224.742</v>
       </c>
       <c r="K2" t="n">
-        <v>311.0700000000029</v>
+        <v>259.3269292929305</v>
       </c>
       <c r="L2" t="n">
-        <v>443.4669292929304</v>
+        <v>259.3269292929305</v>
       </c>
       <c r="M2" t="n">
-        <v>480.8889292929304</v>
+        <v>259.3269292929305</v>
       </c>
       <c r="N2" t="n">
-        <v>522.4689292929304</v>
+        <v>259.3269292929305</v>
       </c>
       <c r="O2" t="n">
-        <v>552.1689292929304</v>
+        <v>407.8269292929305</v>
       </c>
       <c r="P2" t="n">
-        <v>577.7109292929305</v>
+        <v>407.8269292929305</v>
       </c>
       <c r="Q2" t="n">
-        <v>599.0949292929305</v>
+        <v>407.8269292929305</v>
       </c>
       <c r="R2" t="n">
-        <v>599.2929292929305</v>
+        <v>556.3269292929305</v>
       </c>
       <c r="S2" t="n">
         <v>599.2929292929305</v>
@@ -2783,34 +2783,34 @@
         <v>120</v>
       </c>
       <c r="I3" t="n">
-        <v>147.1564848484852</v>
+        <v>123.96</v>
       </c>
       <c r="J3" t="n">
-        <v>187.5484848484852</v>
+        <v>189.3</v>
       </c>
       <c r="K3" t="n">
-        <v>241.4044848484852</v>
+        <v>197.22</v>
       </c>
       <c r="L3" t="n">
-        <v>301.9924848484852</v>
+        <v>206.13</v>
       </c>
       <c r="M3" t="n">
-        <v>346.1464848484852</v>
+        <v>206.13</v>
       </c>
       <c r="N3" t="n">
-        <v>374.2624848484852</v>
+        <v>206.13</v>
       </c>
       <c r="O3" t="n">
-        <v>421.3864848484852</v>
+        <v>213.06</v>
       </c>
       <c r="P3" t="n">
-        <v>426.7324848484852</v>
+        <v>361.56</v>
       </c>
       <c r="Q3" t="n">
-        <v>434.6524848484852</v>
+        <v>389.28</v>
       </c>
       <c r="R3" t="n">
-        <v>454.8484848484852</v>
+        <v>421.95</v>
       </c>
       <c r="S3" t="n">
         <v>454.8484848484852</v>
@@ -2863,28 +2863,28 @@
         <v>120</v>
       </c>
       <c r="J4" t="n">
-        <v>126.732</v>
+        <v>150.69</v>
       </c>
       <c r="K4" t="n">
-        <v>153.66</v>
+        <v>154.65</v>
       </c>
       <c r="L4" t="n">
-        <v>200.784</v>
+        <v>291.6492929292918</v>
       </c>
       <c r="M4" t="n">
-        <v>214.8252929292918</v>
+        <v>291.6492929292918</v>
       </c>
       <c r="N4" t="n">
-        <v>268.6812929292918</v>
+        <v>299.5692929292918</v>
       </c>
       <c r="O4" t="n">
-        <v>315.8052929292918</v>
+        <v>306.4992929292918</v>
       </c>
       <c r="P4" t="n">
-        <v>342.7332929292918</v>
+        <v>310.4592929292918</v>
       </c>
       <c r="Q4" t="n">
-        <v>356.1972929292918</v>
+        <v>332.2392929292918</v>
       </c>
       <c r="R4" t="n">
         <v>362.9292929292918</v>
@@ -3363,7 +3363,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>100.1342720130581</v>
+        <v>12.8</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -3375,19 +3375,19 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>20.6</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>35.3</v>
       </c>
       <c r="S2" t="n">
-        <v>21.2</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>20.4</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -3431,7 +3431,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2307927762477106</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -3446,13 +3446,13 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>173.6</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -3461,7 +3461,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -3517,7 +3517,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>131.3831241710018</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>48.8</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -3690,25 +3690,25 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>88.8</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>48.7</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>28.4</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -3758,7 +3758,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -3767,7 +3767,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>13.4</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -3779,10 +3779,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="S3" t="n">
         <v>18.4</v>
@@ -3835,7 +3835,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -3856,10 +3856,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -4008,7 +4008,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>53.93427201306108</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -4020,7 +4020,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -4029,13 +4029,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>94.8</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>53.6</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -4109,7 +4109,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>9.6</v>
+        <v>6.830792776247719</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -4159,7 +4159,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -4168,7 +4168,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>15.4</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>

--- a/model/Output Files/Year 3.xlsx
+++ b/model/Output Files/Year 3.xlsx
@@ -579,7 +579,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>0.7479999999832927</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -1126,19 +1126,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>77388.6679767371</v>
+        <v>80569.32880399897</v>
       </c>
       <c r="C2" t="n">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="D2" t="n">
-        <v>14091.39863177228</v>
+        <v>15428.23484060925</v>
       </c>
       <c r="E2" t="n">
-        <v>8900</v>
+        <v>9095</v>
       </c>
       <c r="F2" t="n">
-        <v>38312.43174874276</v>
+        <v>39664.27637527207</v>
       </c>
     </row>
   </sheetData>
@@ -1216,10 +1216,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" t="n">
-        <v>150</v>
+        <v>189</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -1404,46 +1404,46 @@
         <v>-13</v>
       </c>
       <c r="G2" t="n">
-        <v>142.5</v>
+        <v>22.1</v>
       </c>
       <c r="H2" t="n">
-        <v>291.5</v>
+        <v>50.7</v>
       </c>
       <c r="I2" t="n">
-        <v>327</v>
+        <v>26</v>
       </c>
       <c r="J2" t="n">
-        <v>388.5</v>
+        <v>27.3</v>
       </c>
       <c r="K2" t="n">
-        <v>502</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="L2" t="n">
-        <v>596</v>
+        <v>114.4</v>
       </c>
       <c r="M2" t="n">
-        <v>670.5</v>
+        <v>128.7</v>
       </c>
       <c r="N2" t="n">
-        <v>745</v>
+        <v>143</v>
       </c>
       <c r="O2" t="n">
-        <v>651</v>
+        <v>109.2</v>
       </c>
       <c r="P2" t="n">
-        <v>576.5</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="Q2" t="n">
-        <v>502</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="R2" t="n">
-        <v>320.5</v>
+        <v>19.5</v>
       </c>
       <c r="S2" t="n">
-        <v>139</v>
+        <v>-41.60000000000001</v>
       </c>
       <c r="T2" t="n">
-        <v>32</v>
+        <v>-88.40000000000001</v>
       </c>
       <c r="U2" t="n">
         <v>-117</v>
@@ -1487,37 +1487,37 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>324</v>
+        <v>83.2</v>
       </c>
       <c r="J3" t="n">
-        <v>486</v>
+        <v>124.8</v>
       </c>
       <c r="K3" t="n">
-        <v>648</v>
+        <v>166.4</v>
       </c>
       <c r="L3" t="n">
-        <v>729</v>
+        <v>187.2</v>
       </c>
       <c r="M3" t="n">
-        <v>751.5</v>
+        <v>149.5</v>
       </c>
       <c r="N3" t="n">
-        <v>583</v>
+        <v>101.4</v>
       </c>
       <c r="O3" t="n">
-        <v>567</v>
+        <v>145.6</v>
       </c>
       <c r="P3" t="n">
-        <v>333.5</v>
+        <v>32.49999999999999</v>
       </c>
       <c r="Q3" t="n">
-        <v>340</v>
+        <v>39</v>
       </c>
       <c r="R3" t="n">
-        <v>243</v>
+        <v>62.4</v>
       </c>
       <c r="S3" t="n">
-        <v>57.99999999999999</v>
+        <v>-62.40000000000001</v>
       </c>
       <c r="T3" t="n">
         <v>-130</v>
@@ -1567,31 +1567,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>81</v>
+        <v>20.8</v>
       </c>
       <c r="K4" t="n">
-        <v>324</v>
+        <v>83.2</v>
       </c>
       <c r="L4" t="n">
-        <v>567</v>
+        <v>145.6</v>
       </c>
       <c r="M4" t="n">
-        <v>589.5</v>
+        <v>107.9</v>
       </c>
       <c r="N4" t="n">
-        <v>648</v>
+        <v>166.4</v>
       </c>
       <c r="O4" t="n">
-        <v>567</v>
+        <v>145.6</v>
       </c>
       <c r="P4" t="n">
-        <v>324</v>
+        <v>83.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>162</v>
+        <v>41.6</v>
       </c>
       <c r="R4" t="n">
-        <v>81</v>
+        <v>20.8</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2052,43 +2052,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>52.7</v>
+        <v>24.1</v>
       </c>
       <c r="H2" t="n">
-        <v>30.5</v>
+        <v>54.7</v>
       </c>
       <c r="I2" t="n">
-        <v>22.6</v>
+        <v>21.8</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>33.3</v>
       </c>
       <c r="K2" t="n">
-        <v>34.93427201306108</v>
+        <v>2.6</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>116.1</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>129</v>
       </c>
       <c r="O2" t="n">
-        <v>150</v>
+        <v>99.30909090909083</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>102.9</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="R2" t="n">
-        <v>150</v>
+        <v>24.5</v>
       </c>
       <c r="S2" t="n">
-        <v>43.4</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -2135,37 +2135,37 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4</v>
+        <v>19.2</v>
       </c>
       <c r="J3" t="n">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="K3" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="L3" t="n">
-        <v>9</v>
+        <v>171</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1.157157432915384</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>7</v>
+        <v>33.6</v>
       </c>
       <c r="P3" t="n">
-        <v>150</v>
+        <v>37.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="R3" t="n">
-        <v>33</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="S3" t="n">
-        <v>33.2307927762477</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -2215,31 +2215,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="K4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L4" t="n">
-        <v>138.3831241710018</v>
+        <v>14</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
       <c r="N4" t="n">
+        <v>152</v>
+      </c>
+      <c r="O4" t="n">
+        <v>14</v>
+      </c>
+      <c r="P4" t="n">
         <v>8</v>
       </c>
-      <c r="O4" t="n">
-        <v>7</v>
-      </c>
-      <c r="P4" t="n">
-        <v>4</v>
-      </c>
       <c r="Q4" t="n">
-        <v>22</v>
+        <v>11.38312417100187</v>
       </c>
       <c r="R4" t="n">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2412,10 +2412,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>38.6</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>85.65200000001671</v>
       </c>
       <c r="U2" t="n">
         <v>117</v>
@@ -2489,7 +2489,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>60.4</v>
       </c>
       <c r="T3" t="n">
         <v>130</v>
@@ -2685,76 +2685,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>179.0909090909106</v>
+        <v>210.2909090909106</v>
       </c>
       <c r="C2" t="n">
-        <v>159.3939393939416</v>
+        <v>190.5939393939416</v>
       </c>
       <c r="D2" t="n">
-        <v>146.2626262626277</v>
+        <v>177.4626262626278</v>
       </c>
       <c r="E2" t="n">
-        <v>133.1313131313139</v>
+        <v>164.3313131313139</v>
       </c>
       <c r="F2" t="n">
-        <v>120</v>
+        <v>151.2</v>
       </c>
       <c r="G2" t="n">
-        <v>172.173</v>
+        <v>175.059</v>
       </c>
       <c r="H2" t="n">
-        <v>202.368</v>
+        <v>229.212</v>
       </c>
       <c r="I2" t="n">
-        <v>224.742</v>
+        <v>250.7940000000001</v>
       </c>
       <c r="J2" t="n">
-        <v>224.742</v>
+        <v>283.7610000000001</v>
       </c>
       <c r="K2" t="n">
-        <v>259.3269292929305</v>
+        <v>286.3350000000001</v>
       </c>
       <c r="L2" t="n">
-        <v>259.3269292929305</v>
+        <v>286.3350000000001</v>
       </c>
       <c r="M2" t="n">
-        <v>259.3269292929305</v>
+        <v>401.2740000000001</v>
       </c>
       <c r="N2" t="n">
-        <v>259.3269292929305</v>
+        <v>528.9840000000002</v>
       </c>
       <c r="O2" t="n">
-        <v>407.8269292929305</v>
+        <v>627.3</v>
       </c>
       <c r="P2" t="n">
-        <v>407.8269292929305</v>
+        <v>729.171</v>
       </c>
       <c r="Q2" t="n">
-        <v>407.8269292929305</v>
+        <v>731.745</v>
       </c>
       <c r="R2" t="n">
-        <v>556.3269292929305</v>
+        <v>756</v>
       </c>
       <c r="S2" t="n">
-        <v>599.2929292929305</v>
+        <v>717.010101010119</v>
       </c>
       <c r="T2" t="n">
-        <v>599.2929292929305</v>
+        <v>630.4929292929304</v>
       </c>
       <c r="U2" t="n">
-        <v>481.1111111111111</v>
+        <v>512.3111111111111</v>
       </c>
       <c r="V2" t="n">
-        <v>382.6262626262645</v>
+        <v>413.8262626262645</v>
       </c>
       <c r="W2" t="n">
-        <v>303.838383838385</v>
+        <v>335.038383838385</v>
       </c>
       <c r="X2" t="n">
-        <v>251.3131313131332</v>
+        <v>282.5131313131332</v>
       </c>
       <c r="Y2" t="n">
-        <v>211.9191919191934</v>
+        <v>243.1191919191934</v>
       </c>
     </row>
     <row r="3">
@@ -2762,76 +2762,76 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>172.5252525252518</v>
+        <v>203.7252525252518</v>
       </c>
       <c r="C3" t="n">
-        <v>152.8282828282828</v>
+        <v>184.0282828282829</v>
       </c>
       <c r="D3" t="n">
-        <v>139.6969696969689</v>
+        <v>170.896969696969</v>
       </c>
       <c r="E3" t="n">
-        <v>139.6969696969689</v>
+        <v>170.896969696969</v>
       </c>
       <c r="F3" t="n">
-        <v>139.6969696969689</v>
+        <v>170.896969696969</v>
       </c>
       <c r="G3" t="n">
-        <v>120</v>
+        <v>151.2</v>
       </c>
       <c r="H3" t="n">
-        <v>120</v>
+        <v>151.2</v>
       </c>
       <c r="I3" t="n">
-        <v>123.96</v>
+        <v>170.208</v>
       </c>
       <c r="J3" t="n">
-        <v>189.3</v>
+        <v>182.088</v>
       </c>
       <c r="K3" t="n">
-        <v>197.22</v>
+        <v>197.928</v>
       </c>
       <c r="L3" t="n">
-        <v>206.13</v>
+        <v>367.2180000000001</v>
       </c>
       <c r="M3" t="n">
-        <v>206.13</v>
+        <v>368.3635858585863</v>
       </c>
       <c r="N3" t="n">
-        <v>206.13</v>
+        <v>368.3635858585863</v>
       </c>
       <c r="O3" t="n">
-        <v>213.06</v>
+        <v>401.6275858585863</v>
       </c>
       <c r="P3" t="n">
-        <v>361.56</v>
+        <v>438.7525858585863</v>
       </c>
       <c r="Q3" t="n">
-        <v>389.28</v>
+        <v>482.3125858585863</v>
       </c>
       <c r="R3" t="n">
-        <v>421.95</v>
+        <v>547.0585858585863</v>
       </c>
       <c r="S3" t="n">
-        <v>454.8484848484852</v>
+        <v>486.0484848484853</v>
       </c>
       <c r="T3" t="n">
-        <v>323.5353535353539</v>
+        <v>354.735353535354</v>
       </c>
       <c r="U3" t="n">
-        <v>323.5353535353539</v>
+        <v>354.735353535354</v>
       </c>
       <c r="V3" t="n">
-        <v>323.5353535353539</v>
+        <v>354.735353535354</v>
       </c>
       <c r="W3" t="n">
-        <v>244.7474747474744</v>
+        <v>275.9474747474744</v>
       </c>
       <c r="X3" t="n">
-        <v>244.7474747474744</v>
+        <v>275.9474747474744</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.3535353535346</v>
+        <v>236.5535353535347</v>
       </c>
     </row>
     <row r="4">
@@ -2839,76 +2839,76 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>159.3939393939379</v>
+        <v>190.5939393939379</v>
       </c>
       <c r="C4" t="n">
-        <v>139.6969696969689</v>
+        <v>170.896969696969</v>
       </c>
       <c r="D4" t="n">
-        <v>139.6969696969689</v>
+        <v>170.896969696969</v>
       </c>
       <c r="E4" t="n">
-        <v>139.6969696969689</v>
+        <v>170.896969696969</v>
       </c>
       <c r="F4" t="n">
-        <v>139.6969696969689</v>
+        <v>170.896969696969</v>
       </c>
       <c r="G4" t="n">
-        <v>120</v>
+        <v>151.2</v>
       </c>
       <c r="H4" t="n">
-        <v>120</v>
+        <v>151.2</v>
       </c>
       <c r="I4" t="n">
-        <v>120</v>
+        <v>151.2</v>
       </c>
       <c r="J4" t="n">
-        <v>150.69</v>
+        <v>170.01</v>
       </c>
       <c r="K4" t="n">
-        <v>154.65</v>
+        <v>177.93</v>
       </c>
       <c r="L4" t="n">
-        <v>291.6492929292918</v>
+        <v>191.79</v>
       </c>
       <c r="M4" t="n">
-        <v>291.6492929292918</v>
+        <v>191.79</v>
       </c>
       <c r="N4" t="n">
-        <v>299.5692929292918</v>
+        <v>342.27</v>
       </c>
       <c r="O4" t="n">
-        <v>306.4992929292918</v>
+        <v>356.13</v>
       </c>
       <c r="P4" t="n">
-        <v>310.4592929292918</v>
+        <v>364.05</v>
       </c>
       <c r="Q4" t="n">
-        <v>332.2392929292918</v>
+        <v>375.3192929292919</v>
       </c>
       <c r="R4" t="n">
-        <v>362.9292929292918</v>
+        <v>394.1292929292919</v>
       </c>
       <c r="S4" t="n">
-        <v>362.9292929292918</v>
+        <v>394.1292929292919</v>
       </c>
       <c r="T4" t="n">
-        <v>231.6161616161605</v>
+        <v>262.8161616161605</v>
       </c>
       <c r="U4" t="n">
-        <v>231.6161616161605</v>
+        <v>262.8161616161605</v>
       </c>
       <c r="V4" t="n">
-        <v>231.6161616161605</v>
+        <v>262.8161616161605</v>
       </c>
       <c r="W4" t="n">
-        <v>231.6161616161605</v>
+        <v>262.8161616161605</v>
       </c>
       <c r="X4" t="n">
-        <v>231.6161616161605</v>
+        <v>262.8161616161605</v>
       </c>
       <c r="Y4" t="n">
-        <v>192.2222222222222</v>
+        <v>223.4222222222222</v>
       </c>
     </row>
   </sheetData>
@@ -3348,40 +3348,40 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>23.8</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>44.2</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>12.8</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>122.4</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>112.2</v>
       </c>
       <c r="P2" t="n">
-        <v>20.6</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>35.3</v>
+        <v>40.8</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -3440,28 +3440,28 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>173.6</v>
+        <v>47.6</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="S3" t="n">
-        <v>47.6</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -3511,19 +3511,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>131.3831241710018</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -3532,10 +3532,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>7.38312417100187</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -3672,46 +3672,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>19.7</v>
+        <v>1.7</v>
       </c>
       <c r="H2" t="n">
-        <v>39.5</v>
+        <v>3.5</v>
       </c>
       <c r="I2" t="n">
-        <v>48.8</v>
+        <v>3.8</v>
       </c>
       <c r="J2" t="n">
-        <v>33</v>
+        <v>4.5</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="M2" t="n">
-        <v>14.4</v>
+        <v>8.1</v>
       </c>
       <c r="N2" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="O2" t="n">
-        <v>88.8</v>
+        <v>7.8</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>6.9</v>
       </c>
       <c r="Q2" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="R2" t="n">
-        <v>48.7</v>
+        <v>3.7</v>
       </c>
       <c r="S2" t="n">
-        <v>28.4</v>
+        <v>1.4</v>
       </c>
       <c r="T2" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -3755,37 +3755,37 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J3" t="n">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M3" t="n">
-        <v>13.4</v>
+        <v>9.1</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="Q3" t="n">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="R3" t="n">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="S3" t="n">
-        <v>18.4</v>
+        <v>0.4</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -3835,31 +3835,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>7.1</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q4" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="R4" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -3996,22 +3996,22 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>38.8</v>
+        <v>4.4</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>10.8</v>
       </c>
       <c r="K2" t="n">
-        <v>53.93427201306108</v>
+        <v>15.6</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -4020,22 +4020,22 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>83.40000000000001</v>
+        <v>1.509090909090848</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>15.6</v>
       </c>
       <c r="R2" t="n">
-        <v>94.8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="S2" t="n">
-        <v>53.6</v>
+        <v>2</v>
       </c>
       <c r="T2" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -4079,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>11.2</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -4091,25 +4091,25 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>5.457157432915384</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>19.6</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="S3" t="n">
-        <v>6.830792776247719</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -4159,7 +4159,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -4168,7 +4168,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>15.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>

--- a/model/Output Files/Year 3.xlsx
+++ b/model/Output Files/Year 3.xlsx
@@ -525,13 +525,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>32.5</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -579,22 +579,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0.7479999999832927</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>40.6938799999993</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3">
@@ -1126,19 +1126,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>80569.32880399897</v>
+        <v>80328.5330847545</v>
       </c>
       <c r="C2" t="n">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>15428.23484060925</v>
+        <v>19319.7326200589</v>
       </c>
       <c r="E2" t="n">
-        <v>9095</v>
+        <v>9790</v>
       </c>
       <c r="F2" t="n">
-        <v>39664.27637527207</v>
+        <v>37450.74546035852</v>
       </c>
     </row>
   </sheetData>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -1216,10 +1216,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>189</v>
+        <v>130</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -1728,46 +1728,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>15.2</v>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>30.4</v>
       </c>
       <c r="I2" t="n">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="J2" t="n">
-        <v>6</v>
+        <v>45.6</v>
       </c>
       <c r="K2" t="n">
-        <v>7</v>
+        <v>53.2</v>
       </c>
       <c r="L2" t="n">
-        <v>8</v>
+        <v>60.8</v>
       </c>
       <c r="M2" t="n">
-        <v>9</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="N2" t="n">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="O2" t="n">
-        <v>9</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="P2" t="n">
-        <v>8</v>
+        <v>60.8</v>
       </c>
       <c r="Q2" t="n">
-        <v>7</v>
+        <v>53.2</v>
       </c>
       <c r="R2" t="n">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="S2" t="n">
-        <v>3</v>
+        <v>22.8</v>
       </c>
       <c r="T2" t="n">
-        <v>2</v>
+        <v>15.2</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -1811,37 +1811,37 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4</v>
+        <v>30.4</v>
       </c>
       <c r="J3" t="n">
-        <v>6</v>
+        <v>45.6</v>
       </c>
       <c r="K3" t="n">
-        <v>8</v>
+        <v>60.8</v>
       </c>
       <c r="L3" t="n">
-        <v>9</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="M3" t="n">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="N3" t="n">
-        <v>8</v>
+        <v>60.8</v>
       </c>
       <c r="O3" t="n">
-        <v>7</v>
+        <v>49.99726558514364</v>
       </c>
       <c r="P3" t="n">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="Q3" t="n">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="R3" t="n">
-        <v>3</v>
+        <v>22.8</v>
       </c>
       <c r="S3" t="n">
-        <v>2</v>
+        <v>15.2</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -1891,31 +1891,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>4</v>
+        <v>30.4</v>
       </c>
       <c r="L4" t="n">
-        <v>7</v>
+        <v>53.2</v>
       </c>
       <c r="M4" t="n">
-        <v>8</v>
+        <v>60.8</v>
       </c>
       <c r="N4" t="n">
-        <v>8</v>
+        <v>60.8</v>
       </c>
       <c r="O4" t="n">
-        <v>7</v>
+        <v>53.2</v>
       </c>
       <c r="P4" t="n">
-        <v>4</v>
+        <v>10.38312417100261</v>
       </c>
       <c r="Q4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2052,40 +2052,40 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>24.1</v>
+        <v>7.400000000000729</v>
       </c>
       <c r="H2" t="n">
-        <v>54.7</v>
+        <v>17.4</v>
       </c>
       <c r="I2" t="n">
-        <v>21.8</v>
+        <v>6.799999999999272</v>
       </c>
       <c r="J2" t="n">
-        <v>33.3</v>
+        <v>6.600000000000001</v>
       </c>
       <c r="K2" t="n">
-        <v>2.6</v>
+        <v>27.2</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>40.00000000000073</v>
       </c>
       <c r="M2" t="n">
-        <v>116.1</v>
+        <v>45.00000000000037</v>
       </c>
       <c r="N2" t="n">
-        <v>129</v>
+        <v>50</v>
       </c>
       <c r="O2" t="n">
-        <v>99.30909090909083</v>
+        <v>37.19999999999928</v>
       </c>
       <c r="P2" t="n">
-        <v>102.9</v>
+        <v>32.19999999999964</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.6</v>
+        <v>27.2</v>
       </c>
       <c r="R2" t="n">
-        <v>24.5</v>
+        <v>4.200000000000728</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -2135,34 +2135,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>19.2</v>
+        <v>30.4</v>
       </c>
       <c r="J3" t="n">
+        <v>45.6</v>
+      </c>
+      <c r="K3" t="n">
+        <v>60.8</v>
+      </c>
+      <c r="L3" t="n">
+        <v>68.40000000000001</v>
+      </c>
+      <c r="M3" t="n">
+        <v>52.60000000000036</v>
+      </c>
+      <c r="N3" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="O3" t="n">
+        <v>49.99726558514364</v>
+      </c>
+      <c r="P3" t="n">
+        <v>9.399999999999636</v>
+      </c>
+      <c r="Q3" t="n">
         <v>12</v>
       </c>
-      <c r="K3" t="n">
-        <v>16</v>
-      </c>
-      <c r="L3" t="n">
-        <v>171</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.157157432915384</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>33.6</v>
-      </c>
-      <c r="P3" t="n">
-        <v>37.5</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>44</v>
-      </c>
       <c r="R3" t="n">
-        <v>65.40000000000001</v>
+        <v>22.8</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -2215,31 +2215,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>8</v>
+        <v>30.4</v>
       </c>
       <c r="L4" t="n">
-        <v>14</v>
+        <v>53.2</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>37.40000000000037</v>
       </c>
       <c r="N4" t="n">
-        <v>152</v>
+        <v>60.8</v>
       </c>
       <c r="O4" t="n">
-        <v>14</v>
+        <v>53.2</v>
       </c>
       <c r="P4" t="n">
-        <v>8</v>
+        <v>10.38312417100261</v>
       </c>
       <c r="Q4" t="n">
-        <v>11.38312417100187</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2361,13 +2361,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>32.5</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -2412,25 +2412,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>38.6</v>
+        <v>22.2</v>
       </c>
       <c r="T2" t="n">
-        <v>85.65200000001671</v>
+        <v>73.2</v>
       </c>
       <c r="U2" t="n">
         <v>117</v>
       </c>
       <c r="V2" t="n">
-        <v>97.5</v>
+        <v>56.8061200000007</v>
       </c>
       <c r="W2" t="n">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -2489,7 +2489,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>60.4</v>
+        <v>47.59999999999927</v>
       </c>
       <c r="T3" t="n">
         <v>130</v>
@@ -2685,76 +2685,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>210.2909090909106</v>
+        <v>130.2626262626263</v>
       </c>
       <c r="C2" t="n">
-        <v>190.5939393939416</v>
+        <v>130.2626262626263</v>
       </c>
       <c r="D2" t="n">
-        <v>177.4626262626278</v>
+        <v>130.2626262626263</v>
       </c>
       <c r="E2" t="n">
-        <v>164.3313131313139</v>
+        <v>117.1313131313131</v>
       </c>
       <c r="F2" t="n">
-        <v>151.2</v>
+        <v>104</v>
       </c>
       <c r="G2" t="n">
-        <v>175.059</v>
+        <v>111.3260000000007</v>
       </c>
       <c r="H2" t="n">
-        <v>229.212</v>
+        <v>128.5520000000007</v>
       </c>
       <c r="I2" t="n">
-        <v>250.7940000000001</v>
+        <v>135.284</v>
       </c>
       <c r="J2" t="n">
-        <v>283.7610000000001</v>
+        <v>141.818</v>
       </c>
       <c r="K2" t="n">
-        <v>286.3350000000001</v>
+        <v>168.746</v>
       </c>
       <c r="L2" t="n">
-        <v>286.3350000000001</v>
+        <v>208.3460000000007</v>
       </c>
       <c r="M2" t="n">
-        <v>401.2740000000001</v>
+        <v>252.8960000000011</v>
       </c>
       <c r="N2" t="n">
-        <v>528.9840000000002</v>
+        <v>302.3960000000011</v>
       </c>
       <c r="O2" t="n">
-        <v>627.3</v>
+        <v>339.2240000000004</v>
       </c>
       <c r="P2" t="n">
-        <v>729.171</v>
+        <v>371.102</v>
       </c>
       <c r="Q2" t="n">
-        <v>731.745</v>
+        <v>398.03</v>
       </c>
       <c r="R2" t="n">
-        <v>756</v>
+        <v>402.1880000000007</v>
       </c>
       <c r="S2" t="n">
-        <v>717.010101010119</v>
+        <v>379.7637575757583</v>
       </c>
       <c r="T2" t="n">
-        <v>630.4929292929304</v>
+        <v>305.8243636363644</v>
       </c>
       <c r="U2" t="n">
-        <v>512.3111111111111</v>
+        <v>187.6425454545462</v>
       </c>
       <c r="V2" t="n">
-        <v>413.8262626262645</v>
+        <v>130.2626262626263</v>
       </c>
       <c r="W2" t="n">
-        <v>335.038383838385</v>
+        <v>130.2626262626263</v>
       </c>
       <c r="X2" t="n">
-        <v>282.5131313131332</v>
+        <v>130.2626262626263</v>
       </c>
       <c r="Y2" t="n">
-        <v>243.1191919191934</v>
+        <v>130.2626262626263</v>
       </c>
     </row>
     <row r="3">
@@ -2762,76 +2762,76 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>203.7252525252518</v>
+        <v>156.5252525252525</v>
       </c>
       <c r="C3" t="n">
-        <v>184.0282828282829</v>
+        <v>136.8282828282828</v>
       </c>
       <c r="D3" t="n">
-        <v>170.896969696969</v>
+        <v>123.6969696969697</v>
       </c>
       <c r="E3" t="n">
-        <v>170.896969696969</v>
+        <v>123.6969696969697</v>
       </c>
       <c r="F3" t="n">
-        <v>170.896969696969</v>
+        <v>123.6969696969697</v>
       </c>
       <c r="G3" t="n">
-        <v>151.2</v>
+        <v>104</v>
       </c>
       <c r="H3" t="n">
-        <v>151.2</v>
+        <v>104</v>
       </c>
       <c r="I3" t="n">
-        <v>170.208</v>
+        <v>134.096</v>
       </c>
       <c r="J3" t="n">
-        <v>182.088</v>
+        <v>179.24</v>
       </c>
       <c r="K3" t="n">
-        <v>197.928</v>
+        <v>239.432</v>
       </c>
       <c r="L3" t="n">
-        <v>367.2180000000001</v>
+        <v>307.148</v>
       </c>
       <c r="M3" t="n">
-        <v>368.3635858585863</v>
+        <v>359.2220000000004</v>
       </c>
       <c r="N3" t="n">
-        <v>368.3635858585863</v>
+        <v>393.6740000000004</v>
       </c>
       <c r="O3" t="n">
-        <v>401.6275858585863</v>
+        <v>443.1712929292926</v>
       </c>
       <c r="P3" t="n">
-        <v>438.7525858585863</v>
+        <v>452.4772929292922</v>
       </c>
       <c r="Q3" t="n">
-        <v>482.3125858585863</v>
+        <v>464.3572929292922</v>
       </c>
       <c r="R3" t="n">
-        <v>547.0585858585863</v>
+        <v>486.9292929292922</v>
       </c>
       <c r="S3" t="n">
-        <v>486.0484848484853</v>
+        <v>438.8484848484849</v>
       </c>
       <c r="T3" t="n">
-        <v>354.735353535354</v>
+        <v>307.5353535353535</v>
       </c>
       <c r="U3" t="n">
-        <v>354.735353535354</v>
+        <v>307.5353535353535</v>
       </c>
       <c r="V3" t="n">
-        <v>354.735353535354</v>
+        <v>307.5353535353535</v>
       </c>
       <c r="W3" t="n">
-        <v>275.9474747474744</v>
+        <v>228.7474747474747</v>
       </c>
       <c r="X3" t="n">
-        <v>275.9474747474744</v>
+        <v>228.7474747474747</v>
       </c>
       <c r="Y3" t="n">
-        <v>236.5535353535347</v>
+        <v>189.3535353535353</v>
       </c>
     </row>
     <row r="4">
@@ -2839,76 +2839,76 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>190.5939393939379</v>
+        <v>143.3939393939394</v>
       </c>
       <c r="C4" t="n">
-        <v>170.896969696969</v>
+        <v>123.6969696969697</v>
       </c>
       <c r="D4" t="n">
-        <v>170.896969696969</v>
+        <v>123.6969696969697</v>
       </c>
       <c r="E4" t="n">
-        <v>170.896969696969</v>
+        <v>123.6969696969697</v>
       </c>
       <c r="F4" t="n">
-        <v>170.896969696969</v>
+        <v>123.6969696969697</v>
       </c>
       <c r="G4" t="n">
-        <v>151.2</v>
+        <v>104</v>
       </c>
       <c r="H4" t="n">
-        <v>151.2</v>
+        <v>104</v>
       </c>
       <c r="I4" t="n">
-        <v>151.2</v>
+        <v>104</v>
       </c>
       <c r="J4" t="n">
-        <v>170.01</v>
+        <v>104</v>
       </c>
       <c r="K4" t="n">
-        <v>177.93</v>
+        <v>134.096</v>
       </c>
       <c r="L4" t="n">
-        <v>191.79</v>
+        <v>186.764</v>
       </c>
       <c r="M4" t="n">
-        <v>191.79</v>
+        <v>223.7900000000004</v>
       </c>
       <c r="N4" t="n">
-        <v>342.27</v>
+        <v>283.9820000000004</v>
       </c>
       <c r="O4" t="n">
-        <v>356.13</v>
+        <v>336.6500000000004</v>
       </c>
       <c r="P4" t="n">
-        <v>364.05</v>
+        <v>346.929292929293</v>
       </c>
       <c r="Q4" t="n">
-        <v>375.3192929292919</v>
+        <v>346.929292929293</v>
       </c>
       <c r="R4" t="n">
-        <v>394.1292929292919</v>
+        <v>346.929292929293</v>
       </c>
       <c r="S4" t="n">
-        <v>394.1292929292919</v>
+        <v>346.929292929293</v>
       </c>
       <c r="T4" t="n">
-        <v>262.8161616161605</v>
+        <v>215.6161616161616</v>
       </c>
       <c r="U4" t="n">
-        <v>262.8161616161605</v>
+        <v>215.6161616161616</v>
       </c>
       <c r="V4" t="n">
-        <v>262.8161616161605</v>
+        <v>215.6161616161616</v>
       </c>
       <c r="W4" t="n">
-        <v>262.8161616161605</v>
+        <v>215.6161616161616</v>
       </c>
       <c r="X4" t="n">
-        <v>262.8161616161605</v>
+        <v>215.6161616161616</v>
       </c>
       <c r="Y4" t="n">
-        <v>223.4222222222222</v>
+        <v>176.2222222222222</v>
       </c>
     </row>
   </sheetData>
@@ -3348,16 +3348,16 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>23.8</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>44.2</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -3366,22 +3366,22 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>122.4</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>136</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>112.2</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>98.59999999999999</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>40.8</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -3440,25 +3440,25 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>153</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>47.6</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -3511,7 +3511,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>136</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -3532,10 +3532,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>7.38312417100187</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -3672,43 +3672,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>8.1</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>7.8</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>6.9</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -3755,37 +3755,37 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>9.1</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>3.9</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -3835,31 +3835,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>7.1</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -3996,22 +3996,22 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.4</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>9.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>10.8</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>15.6</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>5.6</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -4020,19 +4020,19 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.509090909090848</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.6</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>8.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -4079,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>11.2</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -4091,22 +4091,22 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>5.457157432915384</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19.6</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>9.6</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -4168,7 +4168,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>8.300000000000001</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>

--- a/model/Output Files/Year 3.xlsx
+++ b/model/Output Files/Year 3.xlsx
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>77388.66797673711</v>
+        <v>77388.66797673712</v>
       </c>
       <c r="C2" t="n">
         <v>2000</v>
@@ -1138,7 +1138,7 @@
         <v>9770</v>
       </c>
       <c r="F2" t="n">
-        <v>40673.02603842094</v>
+        <v>40673.02603842095</v>
       </c>
     </row>
   </sheetData>
@@ -1236,7 +1236,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1245,30 +1245,50 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Type 1</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Type 2</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Type 3</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Type 4</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Type 5</t>
-        </is>
+      <c r="B1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="2">
@@ -1279,15 +1299,245 @@
         <v>15</v>
       </c>
       <c r="C2" t="n">
+        <v>15</v>
+      </c>
+      <c r="D2" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2" t="n">
+        <v>15</v>
+      </c>
+      <c r="F2" t="n">
+        <v>15</v>
+      </c>
+      <c r="G2" t="n">
+        <v>15</v>
+      </c>
+      <c r="H2" t="n">
+        <v>15</v>
+      </c>
+      <c r="I2" t="n">
+        <v>15</v>
+      </c>
+      <c r="J2" t="n">
+        <v>15</v>
+      </c>
+      <c r="K2" t="n">
+        <v>15</v>
+      </c>
+      <c r="L2" t="n">
+        <v>15</v>
+      </c>
+      <c r="M2" t="n">
+        <v>15</v>
+      </c>
+      <c r="N2" t="n">
+        <v>15</v>
+      </c>
+      <c r="O2" t="n">
+        <v>15</v>
+      </c>
+      <c r="P2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
         <v>34</v>
       </c>
-      <c r="D2" t="n">
+      <c r="C3" t="n">
+        <v>34</v>
+      </c>
+      <c r="D3" t="n">
+        <v>34</v>
+      </c>
+      <c r="E3" t="n">
+        <v>34</v>
+      </c>
+      <c r="F3" t="n">
+        <v>34</v>
+      </c>
+      <c r="G3" t="n">
+        <v>34</v>
+      </c>
+      <c r="H3" t="n">
+        <v>34</v>
+      </c>
+      <c r="I3" t="n">
+        <v>34</v>
+      </c>
+      <c r="J3" t="n">
+        <v>34</v>
+      </c>
+      <c r="K3" t="n">
+        <v>34</v>
+      </c>
+      <c r="L3" t="n">
+        <v>34</v>
+      </c>
+      <c r="M3" t="n">
+        <v>34</v>
+      </c>
+      <c r="N3" t="n">
+        <v>34</v>
+      </c>
+      <c r="O3" t="n">
+        <v>34</v>
+      </c>
+      <c r="P3" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
         <v>1</v>
       </c>
-      <c r="E2" t="n">
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
         <v>4</v>
       </c>
-      <c r="F2" t="n">
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="n">
+        <v>4</v>
+      </c>
+      <c r="F5" t="n">
+        <v>4</v>
+      </c>
+      <c r="G5" t="n">
+        <v>4</v>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+      <c r="I5" t="n">
+        <v>4</v>
+      </c>
+      <c r="J5" t="n">
+        <v>4</v>
+      </c>
+      <c r="K5" t="n">
+        <v>4</v>
+      </c>
+      <c r="L5" t="n">
+        <v>4</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="n">
+        <v>4</v>
+      </c>
+      <c r="O5" t="n">
+        <v>4</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>11</v>
+      </c>
+      <c r="C6" t="n">
+        <v>11</v>
+      </c>
+      <c r="D6" t="n">
+        <v>11</v>
+      </c>
+      <c r="E6" t="n">
+        <v>11</v>
+      </c>
+      <c r="F6" t="n">
+        <v>11</v>
+      </c>
+      <c r="G6" t="n">
+        <v>11</v>
+      </c>
+      <c r="H6" t="n">
+        <v>11</v>
+      </c>
+      <c r="I6" t="n">
+        <v>11</v>
+      </c>
+      <c r="J6" t="n">
+        <v>11</v>
+      </c>
+      <c r="K6" t="n">
+        <v>11</v>
+      </c>
+      <c r="L6" t="n">
+        <v>11</v>
+      </c>
+      <c r="M6" t="n">
+        <v>11</v>
+      </c>
+      <c r="N6" t="n">
+        <v>11</v>
+      </c>
+      <c r="O6" t="n">
+        <v>11</v>
+      </c>
+      <c r="P6" t="n">
         <v>11</v>
       </c>
     </row>
@@ -1891,16 +2141,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>6.8</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>27.2</v>
       </c>
       <c r="L4" t="n">
-        <v>47.6</v>
+        <v>37.5831241710018</v>
       </c>
       <c r="M4" t="n">
-        <v>37.58312417100181</v>
+        <v>54.4</v>
       </c>
       <c r="N4" t="n">
         <v>54.4</v>
@@ -2052,34 +2302,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>64.3</v>
+        <v>5.8</v>
       </c>
       <c r="H2" t="n">
-        <v>53.7</v>
+        <v>14.2</v>
       </c>
       <c r="I2" t="n">
-        <v>51.6</v>
+        <v>2.8</v>
       </c>
       <c r="J2" t="n">
         <v>1.8</v>
       </c>
       <c r="K2" t="n">
-        <v>21.6</v>
+        <v>70.03427201305777</v>
       </c>
       <c r="L2" t="n">
-        <v>133.7342720130581</v>
+        <v>33.6</v>
       </c>
       <c r="M2" t="n">
         <v>37.8</v>
       </c>
       <c r="N2" t="n">
-        <v>42</v>
+        <v>150</v>
       </c>
       <c r="O2" t="n">
         <v>30</v>
       </c>
       <c r="P2" t="n">
-        <v>25.8</v>
+        <v>104.7</v>
       </c>
       <c r="Q2" t="n">
         <v>21.6</v>
@@ -2091,7 +2341,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>11.6</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -2135,7 +2385,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>27.43079277624771</v>
+        <v>27.2</v>
       </c>
       <c r="J3" t="n">
         <v>40.8</v>
@@ -2162,7 +2412,7 @@
         <v>8</v>
       </c>
       <c r="R3" t="n">
-        <v>20.4</v>
+        <v>20.63079277624771</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -2215,16 +2465,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>6.8</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>27.2</v>
       </c>
       <c r="L4" t="n">
-        <v>47.6</v>
+        <v>37.5831241710018</v>
       </c>
       <c r="M4" t="n">
-        <v>14.1831241710018</v>
+        <v>31</v>
       </c>
       <c r="N4" t="n">
         <v>54.4</v>
@@ -2685,76 +2935,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>179.0909090909106</v>
+        <v>179.7979797979801</v>
       </c>
       <c r="C2" t="n">
-        <v>159.3939393939416</v>
+        <v>160.1010101010111</v>
       </c>
       <c r="D2" t="n">
-        <v>146.2626262626277</v>
+        <v>146.9696969696973</v>
       </c>
       <c r="E2" t="n">
-        <v>133.1313131313139</v>
+        <v>133.8383838383834</v>
       </c>
       <c r="F2" t="n">
-        <v>120</v>
+        <v>120.7070707070695</v>
       </c>
       <c r="G2" t="n">
-        <v>183.657</v>
+        <v>126.4490707070695</v>
       </c>
       <c r="H2" t="n">
-        <v>236.82</v>
+        <v>140.5070707070695</v>
       </c>
       <c r="I2" t="n">
-        <v>287.9040000000029</v>
+        <v>143.2790707070695</v>
       </c>
       <c r="J2" t="n">
-        <v>289.6860000000029</v>
+        <v>145.0610707070695</v>
       </c>
       <c r="K2" t="n">
-        <v>311.0700000000029</v>
+        <v>214.3949999999967</v>
       </c>
       <c r="L2" t="n">
-        <v>443.4669292929304</v>
+        <v>247.6589999999967</v>
       </c>
       <c r="M2" t="n">
-        <v>480.8889292929304</v>
+        <v>285.0809999999967</v>
       </c>
       <c r="N2" t="n">
-        <v>522.4689292929304</v>
+        <v>433.5809999999967</v>
       </c>
       <c r="O2" t="n">
-        <v>552.1689292929304</v>
+        <v>463.2809999999967</v>
       </c>
       <c r="P2" t="n">
-        <v>577.7109292929305</v>
+        <v>566.934</v>
       </c>
       <c r="Q2" t="n">
-        <v>599.0949292929305</v>
+        <v>588.318</v>
       </c>
       <c r="R2" t="n">
-        <v>599.2929292929305</v>
+        <v>588.516</v>
       </c>
       <c r="S2" t="n">
-        <v>599.2929292929305</v>
+        <v>588.516</v>
       </c>
       <c r="T2" t="n">
-        <v>599.2929292929305</v>
+        <v>600</v>
       </c>
       <c r="U2" t="n">
-        <v>481.1111111111111</v>
+        <v>481.8181818181826</v>
       </c>
       <c r="V2" t="n">
-        <v>382.6262626262645</v>
+        <v>383.3333333333333</v>
       </c>
       <c r="W2" t="n">
-        <v>303.838383838385</v>
+        <v>304.5454545454545</v>
       </c>
       <c r="X2" t="n">
-        <v>251.3131313131332</v>
+        <v>252.0202020202027</v>
       </c>
       <c r="Y2" t="n">
-        <v>211.9191919191934</v>
+        <v>212.6262626262629</v>
       </c>
     </row>
     <row r="3">
@@ -2762,76 +3012,76 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>172.5252525252518</v>
+        <v>317.6767676767665</v>
       </c>
       <c r="C3" t="n">
-        <v>152.8282828282828</v>
+        <v>297.9797979797976</v>
       </c>
       <c r="D3" t="n">
-        <v>139.6969696969689</v>
+        <v>284.8484848484837</v>
       </c>
       <c r="E3" t="n">
-        <v>139.6969696969689</v>
+        <v>284.8484848484837</v>
       </c>
       <c r="F3" t="n">
-        <v>139.6969696969689</v>
+        <v>284.8484848484837</v>
       </c>
       <c r="G3" t="n">
-        <v>120</v>
+        <v>265.1515151515148</v>
       </c>
       <c r="H3" t="n">
-        <v>120</v>
+        <v>265.1515151515148</v>
       </c>
       <c r="I3" t="n">
-        <v>147.1564848484852</v>
+        <v>292.0795151515148</v>
       </c>
       <c r="J3" t="n">
-        <v>187.5484848484852</v>
+        <v>332.4715151515148</v>
       </c>
       <c r="K3" t="n">
-        <v>241.4044848484852</v>
+        <v>386.3275151515148</v>
       </c>
       <c r="L3" t="n">
-        <v>301.9924848484852</v>
+        <v>446.9155151515148</v>
       </c>
       <c r="M3" t="n">
-        <v>346.1464848484852</v>
+        <v>491.0695151515148</v>
       </c>
       <c r="N3" t="n">
-        <v>374.2624848484852</v>
+        <v>519.1855151515148</v>
       </c>
       <c r="O3" t="n">
-        <v>421.3864848484852</v>
+        <v>566.3095151515148</v>
       </c>
       <c r="P3" t="n">
-        <v>426.7324848484852</v>
+        <v>571.6555151515148</v>
       </c>
       <c r="Q3" t="n">
-        <v>434.6524848484852</v>
+        <v>579.5755151515148</v>
       </c>
       <c r="R3" t="n">
-        <v>454.8484848484852</v>
+        <v>600</v>
       </c>
       <c r="S3" t="n">
-        <v>454.8484848484852</v>
+        <v>600</v>
       </c>
       <c r="T3" t="n">
-        <v>323.5353535353539</v>
+        <v>468.6868686868687</v>
       </c>
       <c r="U3" t="n">
-        <v>323.5353535353539</v>
+        <v>468.6868686868687</v>
       </c>
       <c r="V3" t="n">
-        <v>323.5353535353539</v>
+        <v>468.6868686868687</v>
       </c>
       <c r="W3" t="n">
-        <v>244.7474747474744</v>
+        <v>389.8989898989892</v>
       </c>
       <c r="X3" t="n">
-        <v>244.7474747474744</v>
+        <v>389.8989898989892</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.3535353535346</v>
+        <v>350.5050505050494</v>
       </c>
     </row>
     <row r="4">
@@ -2863,13 +3113,13 @@
         <v>120</v>
       </c>
       <c r="J4" t="n">
-        <v>126.732</v>
+        <v>120</v>
       </c>
       <c r="K4" t="n">
-        <v>153.66</v>
+        <v>146.928</v>
       </c>
       <c r="L4" t="n">
-        <v>200.784</v>
+        <v>184.1352929292918</v>
       </c>
       <c r="M4" t="n">
         <v>214.8252929292918</v>
@@ -3360,16 +3610,16 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>48.43427201305778</v>
       </c>
       <c r="L2" t="n">
-        <v>100.1342720130581</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -3384,10 +3634,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>21.2</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>20.4</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -3431,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2307927762477106</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -3458,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>0.2307927762476972</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -3672,13 +3922,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>19.7</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>39.5</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>48.8</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -3699,7 +3949,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -3708,7 +3958,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>21.2</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -3785,7 +4035,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>18.4</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -3996,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>38.8</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -4035,7 +4285,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -4109,7 +4359,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>9.6</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>

--- a/model/Output Files/Year 3.xlsx
+++ b/model/Output Files/Year 3.xlsx
@@ -15,12 +15,10 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feed in from Type 1" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feed in from Type 2" sheetId="7" state="visible" r:id="rId7"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feed in from Type 3" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feed in from Type 4" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feed in from Type 5" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Costs and Revenues" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Capacities" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Connected Households" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Yearly demand" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Costs and Revenues" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Capacities" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Connected Households" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Yearly demand" sheetId="12" state="visible" r:id="rId12"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -525,22 +523,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>136.8372129533891</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>240.0000000010888</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>223.1727870424766</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>120.0099999990209</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>185.3039999985004</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -564,25 +562,25 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>120.0099999999948</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>236.2537740947568</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0.7479999999300672</v>
+        <v>120.0099999999948</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -591,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>120.0100002953491</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -602,7 +600,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1.254420567420311e-09</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -757,396 +755,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:Y4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Total Revenues</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Total Capital Costs</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Total Operation Variable Costs</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Total Operation Fixed Costs</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Total Profits</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>80569.32880399613</v>
-      </c>
-      <c r="C2" t="n">
-        <v>2000</v>
-      </c>
-      <c r="D2" t="n">
-        <v>15428.23484059823</v>
-      </c>
-      <c r="E2" t="n">
-        <v>9095</v>
-      </c>
-      <c r="F2" t="n">
-        <v>39518.03809901787</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1203,7 +811,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>10173</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -1216,10 +824,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>189</v>
+        <v>5323</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -1230,13 +838,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1296,49 +904,49 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="C2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="D2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="E2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="F2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="G2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="H2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="I2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="J2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="K2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="L2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="M2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="N2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="O2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="P2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
     </row>
     <row r="3">
@@ -1346,49 +954,49 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="C3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="D3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="E3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="F3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="G3" t="n">
-        <v>34</v>
+        <v>484</v>
       </c>
       <c r="H3" t="n">
-        <v>34</v>
+        <v>487</v>
       </c>
       <c r="I3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="J3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="K3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="L3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="M3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="N3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="O3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="P3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
     </row>
     <row r="4">
@@ -1396,149 +1004,49 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="K4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="L4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="M4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="N4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="O4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="P4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4</v>
-      </c>
-      <c r="E5" t="n">
-        <v>4</v>
-      </c>
-      <c r="F5" t="n">
-        <v>4</v>
-      </c>
-      <c r="G5" t="n">
-        <v>4</v>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-      <c r="I5" t="n">
-        <v>4</v>
-      </c>
-      <c r="J5" t="n">
-        <v>4</v>
-      </c>
-      <c r="K5" t="n">
-        <v>4</v>
-      </c>
-      <c r="L5" t="n">
-        <v>4</v>
-      </c>
-      <c r="M5" t="n">
-        <v>4</v>
-      </c>
-      <c r="N5" t="n">
-        <v>4</v>
-      </c>
-      <c r="O5" t="n">
-        <v>4</v>
-      </c>
-      <c r="P5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>11</v>
-      </c>
-      <c r="C6" t="n">
-        <v>11</v>
-      </c>
-      <c r="D6" t="n">
-        <v>11</v>
-      </c>
-      <c r="E6" t="n">
-        <v>11</v>
-      </c>
-      <c r="F6" t="n">
-        <v>11</v>
-      </c>
-      <c r="G6" t="n">
-        <v>11</v>
-      </c>
-      <c r="H6" t="n">
-        <v>11</v>
-      </c>
-      <c r="I6" t="n">
-        <v>11</v>
-      </c>
-      <c r="J6" t="n">
-        <v>11</v>
-      </c>
-      <c r="K6" t="n">
-        <v>11</v>
-      </c>
-      <c r="L6" t="n">
-        <v>11</v>
-      </c>
-      <c r="M6" t="n">
-        <v>11</v>
-      </c>
-      <c r="N6" t="n">
-        <v>11</v>
-      </c>
-      <c r="O6" t="n">
-        <v>11</v>
-      </c>
-      <c r="P6" t="n">
-        <v>11</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1546,7 +1054,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1639,76 +1147,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-32.5</v>
+        <v>-1211.51</v>
       </c>
       <c r="C2" t="n">
-        <v>-19.5</v>
+        <v>-1136.26</v>
       </c>
       <c r="D2" t="n">
-        <v>-13</v>
+        <v>-1061.81</v>
       </c>
       <c r="E2" t="n">
-        <v>-13</v>
+        <v>-996.17</v>
       </c>
       <c r="F2" t="n">
-        <v>-13</v>
+        <v>-977.63</v>
       </c>
       <c r="G2" t="n">
-        <v>22.1</v>
+        <v>-866.895</v>
       </c>
       <c r="H2" t="n">
-        <v>50.7</v>
+        <v>-775.78</v>
       </c>
       <c r="I2" t="n">
-        <v>26</v>
+        <v>-566.6700000000001</v>
       </c>
       <c r="J2" t="n">
-        <v>27.3</v>
+        <v>-390.5800000000002</v>
       </c>
       <c r="K2" t="n">
-        <v>80.59999999999999</v>
+        <v>-468.3050000000001</v>
       </c>
       <c r="L2" t="n">
-        <v>114.4</v>
+        <v>-559.8699999999999</v>
       </c>
       <c r="M2" t="n">
-        <v>128.7</v>
+        <v>-699.625</v>
       </c>
       <c r="N2" t="n">
-        <v>143</v>
+        <v>-920.71</v>
       </c>
       <c r="O2" t="n">
-        <v>109.2</v>
+        <v>-1118.445</v>
       </c>
       <c r="P2" t="n">
-        <v>94.90000000000001</v>
+        <v>-1160.89</v>
       </c>
       <c r="Q2" t="n">
-        <v>80.59999999999999</v>
+        <v>-1156.31</v>
       </c>
       <c r="R2" t="n">
-        <v>19.5</v>
+        <v>-1141.46</v>
       </c>
       <c r="S2" t="n">
-        <v>-41.60000000000001</v>
+        <v>-1144.01</v>
       </c>
       <c r="T2" t="n">
-        <v>-88.40000000000001</v>
+        <v>-1289.76</v>
       </c>
       <c r="U2" t="n">
-        <v>-117</v>
+        <v>-1379.2</v>
       </c>
       <c r="V2" t="n">
-        <v>-97.5</v>
+        <v>-1346.75</v>
       </c>
       <c r="W2" t="n">
-        <v>-78</v>
+        <v>-1297.99</v>
       </c>
       <c r="X2" t="n">
-        <v>-52</v>
+        <v>-1140.13</v>
       </c>
       <c r="Y2" t="n">
-        <v>-39</v>
+        <v>-1064.46</v>
       </c>
     </row>
     <row r="3">
@@ -1716,76 +1224,76 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-32.5</v>
+        <v>-879.3</v>
       </c>
       <c r="C3" t="n">
-        <v>-19.5</v>
+        <v>-811</v>
       </c>
       <c r="D3" t="n">
-        <v>-13</v>
+        <v>-743.5</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-620.6500000000001</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-335.1400000000001</v>
       </c>
       <c r="G3" t="n">
-        <v>-19.5</v>
+        <v>27.27000000000005</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>193.87</v>
       </c>
       <c r="I3" t="n">
-        <v>83.2</v>
+        <v>379.3449999999998</v>
       </c>
       <c r="J3" t="n">
-        <v>124.8</v>
+        <v>534.7799999999999</v>
       </c>
       <c r="K3" t="n">
-        <v>166.4</v>
+        <v>483.6749999999999</v>
       </c>
       <c r="L3" t="n">
-        <v>187.2</v>
+        <v>452.2999999999998</v>
       </c>
       <c r="M3" t="n">
-        <v>149.5</v>
+        <v>367.57</v>
       </c>
       <c r="N3" t="n">
-        <v>101.4</v>
+        <v>149.0700000000001</v>
       </c>
       <c r="O3" t="n">
-        <v>145.6</v>
+        <v>-161.885</v>
       </c>
       <c r="P3" t="n">
-        <v>32.49999999999999</v>
+        <v>-461.76</v>
       </c>
       <c r="Q3" t="n">
-        <v>39</v>
+        <v>-820.285</v>
       </c>
       <c r="R3" t="n">
-        <v>62.4</v>
+        <v>-932.5600000000001</v>
       </c>
       <c r="S3" t="n">
-        <v>-62.40000000000001</v>
+        <v>-950.8</v>
       </c>
       <c r="T3" t="n">
-        <v>-130</v>
+        <v>-1103.5</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>-1198.5</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>-1173</v>
       </c>
       <c r="W3" t="n">
-        <v>-78</v>
+        <v>-1129.8</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>-977.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>-39</v>
+        <v>-906</v>
       </c>
     </row>
     <row r="4">
@@ -1793,76 +1301,76 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-32.5</v>
+        <v>-1150.35</v>
       </c>
       <c r="C4" t="n">
-        <v>-19.5</v>
+        <v>-1086.22</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-1021.5</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-966.9799999999999</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-861.235</v>
       </c>
       <c r="G4" t="n">
-        <v>-19.5</v>
+        <v>-428.7049999999999</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-144.71</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.98000000000013</v>
       </c>
       <c r="J4" t="n">
-        <v>20.8</v>
+        <v>278.04</v>
       </c>
       <c r="K4" t="n">
-        <v>83.2</v>
+        <v>230.71</v>
       </c>
       <c r="L4" t="n">
-        <v>145.6</v>
+        <v>187.8149999999999</v>
       </c>
       <c r="M4" t="n">
-        <v>107.9</v>
+        <v>79.84499999999994</v>
       </c>
       <c r="N4" t="n">
-        <v>166.4</v>
+        <v>-180.765</v>
       </c>
       <c r="O4" t="n">
-        <v>145.6</v>
+        <v>-573.1600000000001</v>
       </c>
       <c r="P4" t="n">
-        <v>83.2</v>
+        <v>-991.62</v>
       </c>
       <c r="Q4" t="n">
-        <v>41.6</v>
+        <v>-1263.34</v>
       </c>
       <c r="R4" t="n">
-        <v>20.8</v>
+        <v>-1258.22</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>-1269.11</v>
       </c>
       <c r="T4" t="n">
-        <v>-130</v>
+        <v>-1424.59</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>-1520.98</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>-1498.26</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>-1456.45</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>-1306.93</v>
       </c>
       <c r="Y4" t="n">
-        <v>-39</v>
+        <v>-1236.82</v>
       </c>
     </row>
   </sheetData>
@@ -1978,46 +1486,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>681.5910000000147</v>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>1912.524000000059</v>
       </c>
       <c r="I2" t="n">
-        <v>5</v>
+        <v>3153.630000000059</v>
       </c>
       <c r="J2" t="n">
-        <v>6</v>
+        <v>3926.778000000001</v>
       </c>
       <c r="K2" t="n">
-        <v>7</v>
+        <v>4038.681000000117</v>
       </c>
       <c r="L2" t="n">
-        <v>8</v>
+        <v>3560.55</v>
       </c>
       <c r="M2" t="n">
-        <v>9</v>
+        <v>2675.499000000059</v>
       </c>
       <c r="N2" t="n">
-        <v>10</v>
+        <v>1607.334000000059</v>
       </c>
       <c r="O2" t="n">
-        <v>9</v>
+        <v>640.8990000000147</v>
       </c>
       <c r="P2" t="n">
-        <v>8</v>
+        <v>20.34600000000046</v>
       </c>
       <c r="Q2" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -2049,49 +1557,49 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>305.1900000000073</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1586.988000000059</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>504</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>630</v>
       </c>
       <c r="I3" t="n">
-        <v>4</v>
+        <v>5969.8</v>
       </c>
       <c r="J3" t="n">
-        <v>6</v>
+        <v>2801.012000001118</v>
       </c>
       <c r="K3" t="n">
-        <v>8</v>
+        <v>798</v>
       </c>
       <c r="L3" t="n">
-        <v>9</v>
+        <v>3750.747984893366</v>
       </c>
       <c r="M3" t="n">
-        <v>10</v>
+        <v>756</v>
       </c>
       <c r="N3" t="n">
-        <v>8</v>
+        <v>756</v>
       </c>
       <c r="O3" t="n">
-        <v>7</v>
+        <v>739.2</v>
       </c>
       <c r="P3" t="n">
-        <v>5</v>
+        <v>672</v>
       </c>
       <c r="Q3" t="n">
-        <v>5</v>
+        <v>600.2070000000147</v>
       </c>
       <c r="R3" t="n">
-        <v>3</v>
+        <v>40.69200000000003</v>
       </c>
       <c r="S3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -2129,43 +1637,43 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>457.7850000000146</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>2695.844999999986</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>805.5599999999999</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>6147.040000000065</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>5392.546266197262</v>
       </c>
       <c r="K4" t="n">
-        <v>4</v>
+        <v>978.6</v>
       </c>
       <c r="L4" t="n">
-        <v>7</v>
+        <v>980.2800000000001</v>
       </c>
       <c r="M4" t="n">
-        <v>8</v>
+        <v>6262.120000000064</v>
       </c>
       <c r="N4" t="n">
-        <v>8</v>
+        <v>940.8</v>
       </c>
       <c r="O4" t="n">
-        <v>7</v>
+        <v>925.6799999999974</v>
       </c>
       <c r="P4" t="n">
-        <v>4</v>
+        <v>1018.26</v>
       </c>
       <c r="Q4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2299,37 +1807,37 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-9.502359503401819e-10</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1136.744000001235</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>2586.960000003554</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3536.198000000802</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3570.37600000106</v>
       </c>
       <c r="L2" t="n">
-        <v>122.4</v>
+        <v>3000.680000001421</v>
       </c>
       <c r="M2" t="n">
-        <v>137.7</v>
+        <v>1975.874000005074</v>
       </c>
       <c r="N2" t="n">
-        <v>153</v>
+        <v>686.6240000014533</v>
       </c>
       <c r="O2" t="n">
-        <v>118.2000000002561</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>79.60909090883482</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -2373,10 +1881,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-1.061407615044585e-09</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1124.988000000001</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -2385,34 +1893,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4</v>
+        <v>5323</v>
       </c>
       <c r="J3" t="n">
-        <v>6</v>
+        <v>2129.012000001118</v>
       </c>
       <c r="K3" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>189</v>
+        <v>2952.747984893365</v>
       </c>
       <c r="M3" t="n">
-        <v>98.35715743167965</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>37.49999999999999</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>6.000000000000114</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -2444,7 +1952,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>4.877801984548569e-08</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -2456,43 +1964,43 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>2017.964999999223</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>5323</v>
       </c>
       <c r="J4" t="n">
-        <v>2</v>
+        <v>4541.626266197261</v>
       </c>
       <c r="K4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1.383124170259339</v>
+        <v>5323</v>
       </c>
       <c r="N4" t="n">
-        <v>174.4000000002561</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>43.60000000055874</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>2.000000000000057</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>-4.813694947951433e-08</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -2611,19 +2119,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>32.5</v>
+        <v>1074.672787046611</v>
       </c>
       <c r="C2" t="n">
-        <v>19.50000000004657</v>
+        <v>896.26</v>
       </c>
       <c r="D2" t="n">
-        <v>12.99999999995343</v>
+        <v>838.6372129574071</v>
       </c>
       <c r="E2" t="n">
-        <v>12.99999999995343</v>
+        <v>756.1700000000001</v>
       </c>
       <c r="F2" t="n">
-        <v>12.99999999995343</v>
+        <v>857.6200000000053</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -2650,37 +2158,37 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>237.5459999974744</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1140.543999999999</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>1036.3</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>1141.460000000005</v>
       </c>
       <c r="S2" t="n">
-        <v>38.6</v>
+        <v>907.7562259052432</v>
       </c>
       <c r="T2" t="n">
-        <v>86.40000000000001</v>
+        <v>1289.76</v>
       </c>
       <c r="U2" t="n">
-        <v>116.2520000001165</v>
+        <v>1259.190000000006</v>
       </c>
       <c r="V2" t="n">
-        <v>97.5</v>
+        <v>1346.75</v>
       </c>
       <c r="W2" t="n">
-        <v>77.99999999995343</v>
+        <v>1297.99</v>
       </c>
       <c r="X2" t="n">
-        <v>52.00000000004657</v>
+        <v>1020.119999704573</v>
       </c>
       <c r="Y2" t="n">
-        <v>38.99999999997672</v>
+        <v>1064.459999999767</v>
       </c>
     </row>
     <row r="3">
@@ -2688,22 +2196,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>32.5</v>
+        <v>879.2999999987455</v>
       </c>
       <c r="C3" t="n">
-        <v>19.50000000004657</v>
+        <v>811</v>
       </c>
       <c r="D3" t="n">
-        <v>12.99999999995343</v>
+        <v>743.5</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>315.4599999966268</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>19.50000000004657</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -2733,31 +2241,31 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>220.0779999986116</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>891.8680000000001</v>
       </c>
       <c r="S3" t="n">
-        <v>60.39999999881258</v>
+        <v>950.8</v>
       </c>
       <c r="T3" t="n">
-        <v>130</v>
+        <v>1103.5</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>1198.5</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>1173</v>
       </c>
       <c r="W3" t="n">
-        <v>77.99999999995343</v>
+        <v>1129.8</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>977.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>38.99999999997672</v>
+        <v>906</v>
       </c>
     </row>
     <row r="4">
@@ -2765,22 +2273,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>32.5</v>
+        <v>1150.35</v>
       </c>
       <c r="C4" t="n">
-        <v>19.50000000004657</v>
+        <v>1086.220000048778</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1021.5</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>966.9800000000284</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>403.45</v>
       </c>
       <c r="G4" t="n">
-        <v>19.50000000004657</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -2810,31 +2318,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>1263.34</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>1258.22</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>1269.1099999521</v>
       </c>
       <c r="T4" t="n">
-        <v>130</v>
+        <v>1424.59</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>1520.979999999997</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>1498.26</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>1456.45</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>1306.93</v>
       </c>
       <c r="Y4" t="n">
-        <v>38.99999999997672</v>
+        <v>1236.82</v>
       </c>
     </row>
   </sheetData>
@@ -2935,76 +2443,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>210.290909090815</v>
+        <v>7640.912336320787</v>
       </c>
       <c r="C2" t="n">
-        <v>190.5939393937983</v>
+        <v>6735.599205007656</v>
       </c>
       <c r="D2" t="n">
-        <v>177.4626262625322</v>
+        <v>5888.490909090967</v>
       </c>
       <c r="E2" t="n">
-        <v>164.3313131312661</v>
+        <v>5124.682828282886</v>
       </c>
       <c r="F2" t="n">
-        <v>151.2</v>
+        <v>4258.39999999883</v>
       </c>
       <c r="G2" t="n">
-        <v>151.2</v>
+        <v>4258.39999999883</v>
       </c>
       <c r="H2" t="n">
-        <v>151.2</v>
+        <v>5383.776560000053</v>
       </c>
       <c r="I2" t="n">
-        <v>151.2</v>
+        <v>7944.866960003571</v>
       </c>
       <c r="J2" t="n">
-        <v>151.2</v>
+        <v>11445.70298000437</v>
       </c>
       <c r="K2" t="n">
-        <v>151.2</v>
+        <v>14980.37522000525</v>
       </c>
       <c r="L2" t="n">
-        <v>272.376</v>
+        <v>17951.04842000666</v>
       </c>
       <c r="M2" t="n">
-        <v>408.699</v>
+        <v>19907.16368001085</v>
       </c>
       <c r="N2" t="n">
-        <v>560.169</v>
+        <v>20586.92144001132</v>
       </c>
       <c r="O2" t="n">
-        <v>677.1870000002535</v>
+        <v>20346.97598546842</v>
       </c>
       <c r="P2" t="n">
-        <v>756</v>
+        <v>19194.91133900377</v>
       </c>
       <c r="Q2" t="n">
-        <v>756</v>
+        <v>18148.1436622361</v>
       </c>
       <c r="R2" t="n">
-        <v>756</v>
+        <v>16995.15376324619</v>
       </c>
       <c r="S2" t="n">
-        <v>717.010101010101</v>
+        <v>16078.22828253382</v>
       </c>
       <c r="T2" t="n">
-        <v>629.7373737373738</v>
+        <v>14775.44040374595</v>
       </c>
       <c r="U2" t="n">
-        <v>512.3111111109935</v>
+        <v>13503.53131283685</v>
       </c>
       <c r="V2" t="n">
-        <v>413.826262626145</v>
+        <v>12143.17777748331</v>
       </c>
       <c r="W2" t="n">
-        <v>335.0383838383133</v>
+        <v>10832.0767673823</v>
       </c>
       <c r="X2" t="n">
-        <v>282.5131313130137</v>
+        <v>9801.652525256472</v>
       </c>
       <c r="Y2" t="n">
-        <v>243.1191919190979</v>
+        <v>8726.440404044355</v>
       </c>
     </row>
     <row r="3">
@@ -3012,76 +2520,76 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>203.7252525252996</v>
+        <v>6147.248484845069</v>
       </c>
       <c r="C3" t="n">
-        <v>184.0282828282828</v>
+        <v>5328.05656565315</v>
       </c>
       <c r="D3" t="n">
-        <v>170.8969696970167</v>
+        <v>4577.046464643056</v>
       </c>
       <c r="E3" t="n">
-        <v>170.8969696970167</v>
+        <v>4258.39999999883</v>
       </c>
       <c r="F3" t="n">
-        <v>170.8969696970167</v>
+        <v>5372.13811999883</v>
       </c>
       <c r="G3" t="n">
-        <v>151.2</v>
+        <v>5372.13811999883</v>
       </c>
       <c r="H3" t="n">
-        <v>151.2</v>
+        <v>5372.13811999883</v>
       </c>
       <c r="I3" t="n">
-        <v>155.16</v>
+        <v>10641.90811999889</v>
       </c>
       <c r="J3" t="n">
-        <v>161.1</v>
+        <v>12749.63</v>
       </c>
       <c r="K3" t="n">
-        <v>169.02</v>
+        <v>12749.63</v>
       </c>
       <c r="L3" t="n">
-        <v>356.13</v>
+        <v>15672.85050504443</v>
       </c>
       <c r="M3" t="n">
-        <v>453.5035858573629</v>
+        <v>15672.85050504443</v>
       </c>
       <c r="N3" t="n">
-        <v>453.5035858573629</v>
+        <v>15672.85050504443</v>
       </c>
       <c r="O3" t="n">
-        <v>460.4335858573629</v>
+        <v>15672.85050504443</v>
       </c>
       <c r="P3" t="n">
-        <v>497.5585858573629</v>
+        <v>15672.85050504443</v>
       </c>
       <c r="Q3" t="n">
-        <v>541.1185858573629</v>
+        <v>15450.54949494481</v>
       </c>
       <c r="R3" t="n">
-        <v>547.0585858573629</v>
+        <v>14549.67272726804</v>
       </c>
       <c r="S3" t="n">
-        <v>486.0484848484614</v>
+        <v>13589.268686864</v>
       </c>
       <c r="T3" t="n">
-        <v>354.73535353533</v>
+        <v>12474.62222221754</v>
       </c>
       <c r="U3" t="n">
-        <v>354.73535353533</v>
+        <v>11264.01616161148</v>
       </c>
       <c r="V3" t="n">
-        <v>354.73535353533</v>
+        <v>10079.16767676299</v>
       </c>
       <c r="W3" t="n">
-        <v>275.9474747474983</v>
+        <v>8937.955555550872</v>
       </c>
       <c r="X3" t="n">
-        <v>275.9474747474983</v>
+        <v>7950.581818177136</v>
       </c>
       <c r="Y3" t="n">
-        <v>236.5535353535824</v>
+        <v>7035.430303025621</v>
       </c>
     </row>
     <row r="4">
@@ -3089,76 +2597,76 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>190.5939393940335</v>
+        <v>7771.682828283805</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8969696970167</v>
+        <v>6674.490909090905</v>
       </c>
       <c r="D4" t="n">
-        <v>170.8969696970167</v>
+        <v>5642.672727272728</v>
       </c>
       <c r="E4" t="n">
-        <v>170.8969696970167</v>
+        <v>4665.925252525252</v>
       </c>
       <c r="F4" t="n">
-        <v>170.8969696970167</v>
+        <v>4258.4</v>
       </c>
       <c r="G4" t="n">
-        <v>151.2</v>
+        <v>6256.185350000001</v>
       </c>
       <c r="H4" t="n">
-        <v>151.2</v>
+        <v>6256.185350000001</v>
       </c>
       <c r="I4" t="n">
-        <v>151.2</v>
+        <v>11525.95535000007</v>
       </c>
       <c r="J4" t="n">
-        <v>153.18</v>
+        <v>16022.16535353535</v>
       </c>
       <c r="K4" t="n">
-        <v>157.14</v>
+        <v>16022.16535353529</v>
       </c>
       <c r="L4" t="n">
-        <v>164.07</v>
+        <v>16022.16535353529</v>
       </c>
       <c r="M4" t="n">
-        <v>165.4392929285568</v>
+        <v>21291.93535353535</v>
       </c>
       <c r="N4" t="n">
-        <v>338.0952929288103</v>
+        <v>21291.93535353535</v>
       </c>
       <c r="O4" t="n">
-        <v>345.0252929288103</v>
+        <v>21291.93535353535</v>
       </c>
       <c r="P4" t="n">
-        <v>348.9852929288103</v>
+        <v>21291.93535353535</v>
       </c>
       <c r="Q4" t="n">
-        <v>392.1492929293635</v>
+        <v>20015.83434343435</v>
       </c>
       <c r="R4" t="n">
-        <v>394.1292929293635</v>
+        <v>18744.90505050505</v>
       </c>
       <c r="S4" t="n">
-        <v>394.1292929293635</v>
+        <v>17462.97575757673</v>
       </c>
       <c r="T4" t="n">
-        <v>262.8161616162322</v>
+        <v>16023.99595959693</v>
       </c>
       <c r="U4" t="n">
-        <v>262.8161616162322</v>
+        <v>14487.6525252535</v>
       </c>
       <c r="V4" t="n">
-        <v>262.8161616162322</v>
+        <v>12974.25858585956</v>
       </c>
       <c r="W4" t="n">
-        <v>262.8161616162322</v>
+        <v>11503.09696969794</v>
       </c>
       <c r="X4" t="n">
-        <v>262.8161616162322</v>
+        <v>10182.96565656663</v>
       </c>
       <c r="Y4" t="n">
-        <v>223.4222222223163</v>
+        <v>8933.652525253499</v>
       </c>
     </row>
     <row r="5">
@@ -6838,34 +6346,34 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>26.2</v>
+        <v>146.3700000011595</v>
       </c>
       <c r="J2" t="n">
-        <v>33</v>
+        <v>311.1</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>349.095000000787</v>
       </c>
       <c r="L2" t="n">
-        <v>108.8000000002794</v>
+        <v>268.7700000010664</v>
       </c>
       <c r="M2" t="n">
-        <v>122.3999999995809</v>
+        <v>116.535000002965</v>
       </c>
       <c r="N2" t="n">
-        <v>136</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>112.2000000001863</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>82.20909090883481</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>28.8</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -6924,25 +6432,25 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>153</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>111.7571574316797</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>47.59999999813735</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -6995,7 +6503,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -7007,7 +6515,7 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>136</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -7016,10 +6524,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -7156,31 +6664,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.399999999743886</v>
+        <v>6.360000001499429</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>49.04000000050291</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>100.0800000020536</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>130.7600000002421</v>
       </c>
       <c r="K2" t="n">
-        <v>6</v>
+        <v>136</v>
       </c>
       <c r="L2" t="n">
-        <v>7.199999999534356</v>
+        <v>118.8800000002375</v>
       </c>
       <c r="M2" t="n">
-        <v>8.100000000209548</v>
+        <v>84.32000000204425</v>
       </c>
       <c r="N2" t="n">
-        <v>9</v>
+        <v>42.56000000000001</v>
       </c>
       <c r="O2" t="n">
-        <v>7.799999999813735</v>
+        <v>4.800000003073364</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -7192,7 +6700,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>1.400000000256114</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -7227,7 +6735,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>2.000000002174406</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -7248,7 +6756,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.799999999813735</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -7260,16 +6768,16 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>3.900000000256114</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>4</v>
+        <v>11.6000000013737</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0.4000000011874363</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -7331,7 +6839,7 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -7340,7 +6848,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -7378,7 +6886,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y4"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7387,77 +6895,30 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1" t="n">
-        <v>23</v>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Total Revenues</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Total Capital Costs</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Total Operation Variable Costs</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Total Operation Fixed Costs</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Total Profits</t>
+        </is>
       </c>
     </row>
     <row r="2">
@@ -7465,230 +6926,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>3375173.5539622</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>426520.526903619</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>187210</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>4.400000000256114</v>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>13</v>
-      </c>
-      <c r="L2" t="n">
-        <v>19.20000000018626</v>
-      </c>
-      <c r="M2" t="n">
-        <v>21.60000000020955</v>
-      </c>
-      <c r="N2" t="n">
-        <v>24</v>
-      </c>
-      <c r="O2" t="n">
-        <v>20.40000000025611</v>
-      </c>
-      <c r="P2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.999999999743886</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>25.20000000018626</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>9.600000001606531</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>10</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>16.78312417025934</v>
-      </c>
-      <c r="N4" t="n">
-        <v>22.40000000025611</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>5.600000000558794</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0</v>
+        <v>2019143.341338841</v>
       </c>
     </row>
   </sheetData>

--- a/model/Output Files/Year 3.xlsx
+++ b/model/Output Files/Year 3.xlsx
@@ -15,10 +15,11 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feed in from Type 1" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feed in from Type 2" sheetId="7" state="visible" r:id="rId7"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feed in from Type 3" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Costs and Revenues" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Capacities" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Connected Households" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Yearly demand" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feed in from Type 4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Costs and Revenues" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Capacities" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Connected Households" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Yearly demand" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -523,76 +524,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>136.8372129533891</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>240.0000000010888</v>
+        <v>240</v>
       </c>
       <c r="D2" t="n">
-        <v>223.1727870424766</v>
+        <v>240</v>
       </c>
       <c r="E2" t="n">
+        <v>239.9999999985658</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>175.0929999985005</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>225.7553227901634</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
         <v>240</v>
       </c>
-      <c r="F2" t="n">
-        <v>120.0099999990209</v>
-      </c>
-      <c r="G2" t="n">
-        <v>185.3039999985004</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="V2" t="n">
+        <v>120.0099999999948</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
         <v>240</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>120.0099999999948</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>236.2537740947568</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>120.0099999999948</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>120.0100002953491</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +601,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1.254420567420311e-09</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -660,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>1.030002749757841e-09</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -683,13 +684,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>2.600245352368802e-09</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>15.13899999826748</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -734,7 +735,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>3.960000000063019</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -755,6 +756,72 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Total Revenues</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Total Capital Costs</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Total Operation Variable Costs</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Total Operation Fixed Costs</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Total Profits</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>3384856.42682176</v>
+      </c>
+      <c r="C2" t="n">
+        <v>6400</v>
+      </c>
+      <c r="D2" t="n">
+        <v>424033.4943990947</v>
+      </c>
+      <c r="E2" t="n">
+        <v>187775</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2022949.123281547</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -811,7 +878,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>10173</v>
+        <v>10206</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -824,10 +891,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="C4" t="n">
-        <v>5323</v>
+        <v>5337</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -838,13 +905,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -969,16 +1036,16 @@
         <v>510</v>
       </c>
       <c r="G3" t="n">
-        <v>484</v>
+        <v>510</v>
       </c>
       <c r="H3" t="n">
-        <v>487</v>
+        <v>510</v>
       </c>
       <c r="I3" t="n">
         <v>510</v>
       </c>
       <c r="J3" t="n">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="K3" t="n">
         <v>510</v>
@@ -1019,16 +1086,16 @@
         <v>40</v>
       </c>
       <c r="G4" t="n">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="H4" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I4" t="n">
         <v>40</v>
       </c>
       <c r="J4" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K4" t="n">
         <v>40</v>
@@ -1047,6 +1114,56 @@
       </c>
       <c r="P4" t="n">
         <v>40</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1054,7 +1171,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1156,43 +1273,43 @@
         <v>-1061.81</v>
       </c>
       <c r="E2" t="n">
-        <v>-996.17</v>
+        <v>-1031.17</v>
       </c>
       <c r="F2" t="n">
         <v>-977.63</v>
       </c>
       <c r="G2" t="n">
-        <v>-866.895</v>
+        <v>-858.895</v>
       </c>
       <c r="H2" t="n">
-        <v>-775.78</v>
+        <v>-752.78</v>
       </c>
       <c r="I2" t="n">
-        <v>-566.6700000000001</v>
+        <v>-528.6700000000001</v>
       </c>
       <c r="J2" t="n">
-        <v>-390.5800000000002</v>
+        <v>-343.5800000000002</v>
       </c>
       <c r="K2" t="n">
-        <v>-468.3050000000001</v>
+        <v>-420.3050000000001</v>
       </c>
       <c r="L2" t="n">
-        <v>-559.8699999999999</v>
+        <v>-516.8699999999999</v>
       </c>
       <c r="M2" t="n">
-        <v>-699.625</v>
+        <v>-667.625</v>
       </c>
       <c r="N2" t="n">
-        <v>-920.71</v>
+        <v>-901.71</v>
       </c>
       <c r="O2" t="n">
-        <v>-1118.445</v>
+        <v>-1111.445</v>
       </c>
       <c r="P2" t="n">
         <v>-1160.89</v>
       </c>
       <c r="Q2" t="n">
-        <v>-1156.31</v>
+        <v>-1191.31</v>
       </c>
       <c r="R2" t="n">
         <v>-1141.46</v>
@@ -1233,43 +1350,43 @@
         <v>-743.5</v>
       </c>
       <c r="E3" t="n">
-        <v>-620.6500000000001</v>
+        <v>-651.6500000000001</v>
       </c>
       <c r="F3" t="n">
-        <v>-335.1400000000001</v>
+        <v>-316.1400000000001</v>
       </c>
       <c r="G3" t="n">
-        <v>27.27000000000005</v>
+        <v>69.27000000000005</v>
       </c>
       <c r="H3" t="n">
-        <v>193.87</v>
+        <v>254.87</v>
       </c>
       <c r="I3" t="n">
-        <v>379.3449999999998</v>
+        <v>454.3449999999998</v>
       </c>
       <c r="J3" t="n">
-        <v>534.7799999999999</v>
+        <v>618.7799999999999</v>
       </c>
       <c r="K3" t="n">
-        <v>483.6749999999999</v>
+        <v>570.675</v>
       </c>
       <c r="L3" t="n">
-        <v>452.2999999999998</v>
+        <v>538.2999999999998</v>
       </c>
       <c r="M3" t="n">
-        <v>367.57</v>
+        <v>445.57</v>
       </c>
       <c r="N3" t="n">
-        <v>149.0700000000001</v>
+        <v>215.0700000000001</v>
       </c>
       <c r="O3" t="n">
-        <v>-161.885</v>
+        <v>-112.885</v>
       </c>
       <c r="P3" t="n">
-        <v>-461.76</v>
+        <v>-434.76</v>
       </c>
       <c r="Q3" t="n">
-        <v>-820.285</v>
+        <v>-847.285</v>
       </c>
       <c r="R3" t="n">
         <v>-932.5600000000001</v>
@@ -1310,43 +1427,43 @@
         <v>-1021.5</v>
       </c>
       <c r="E4" t="n">
-        <v>-966.9799999999999</v>
+        <v>-1001.98</v>
       </c>
       <c r="F4" t="n">
-        <v>-861.235</v>
+        <v>-856.235</v>
       </c>
       <c r="G4" t="n">
-        <v>-428.7049999999999</v>
+        <v>-396.7049999999999</v>
       </c>
       <c r="H4" t="n">
-        <v>-144.71</v>
+        <v>-85.70999999999998</v>
       </c>
       <c r="I4" t="n">
-        <v>96.98000000000013</v>
+        <v>172.9800000000001</v>
       </c>
       <c r="J4" t="n">
-        <v>278.04</v>
+        <v>364.04</v>
       </c>
       <c r="K4" t="n">
-        <v>230.71</v>
+        <v>320.71</v>
       </c>
       <c r="L4" t="n">
-        <v>187.8149999999999</v>
+        <v>275.8149999999999</v>
       </c>
       <c r="M4" t="n">
-        <v>79.84499999999994</v>
+        <v>158.8449999999999</v>
       </c>
       <c r="N4" t="n">
-        <v>-180.765</v>
+        <v>-115.765</v>
       </c>
       <c r="O4" t="n">
-        <v>-573.1600000000001</v>
+        <v>-530.1600000000001</v>
       </c>
       <c r="P4" t="n">
-        <v>-991.62</v>
+        <v>-976.62</v>
       </c>
       <c r="Q4" t="n">
-        <v>-1263.34</v>
+        <v>-1298.34</v>
       </c>
       <c r="R4" t="n">
         <v>-1258.22</v>
@@ -1486,34 +1603,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>681.5910000000147</v>
+        <v>683.8020000000147</v>
       </c>
       <c r="H2" t="n">
-        <v>1912.524000000059</v>
+        <v>1918.728000000059</v>
       </c>
       <c r="I2" t="n">
-        <v>3153.630000000059</v>
+        <v>3163.860000000059</v>
       </c>
       <c r="J2" t="n">
-        <v>3926.778000000001</v>
+        <v>3939.516000000117</v>
       </c>
       <c r="K2" t="n">
-        <v>4038.681000000117</v>
+        <v>4051.782000000117</v>
       </c>
       <c r="L2" t="n">
-        <v>3560.55</v>
+        <v>3572.1</v>
       </c>
       <c r="M2" t="n">
-        <v>2675.499000000059</v>
+        <v>2684.178000000059</v>
       </c>
       <c r="N2" t="n">
-        <v>1607.334000000059</v>
+        <v>1612.54800000003</v>
       </c>
       <c r="O2" t="n">
-        <v>640.8990000000147</v>
+        <v>642.9780000000146</v>
       </c>
       <c r="P2" t="n">
-        <v>20.34600000000046</v>
+        <v>20.41200000203449</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -1557,46 +1674,46 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>305.1900000000073</v>
+        <v>306.1800000000073</v>
       </c>
       <c r="F3" t="n">
-        <v>1586.988000000059</v>
+        <v>462</v>
       </c>
       <c r="G3" t="n">
         <v>504</v>
       </c>
       <c r="H3" t="n">
-        <v>630</v>
+        <v>2493.004306701992</v>
       </c>
       <c r="I3" t="n">
-        <v>5969.8</v>
+        <v>646.8</v>
       </c>
       <c r="J3" t="n">
-        <v>2801.012000001118</v>
+        <v>672</v>
       </c>
       <c r="K3" t="n">
         <v>798</v>
       </c>
       <c r="L3" t="n">
-        <v>3750.747984893366</v>
+        <v>798</v>
       </c>
       <c r="M3" t="n">
         <v>756</v>
       </c>
       <c r="N3" t="n">
-        <v>756</v>
+        <v>5531.652</v>
       </c>
       <c r="O3" t="n">
-        <v>739.2</v>
+        <v>4072.193999999769</v>
       </c>
       <c r="P3" t="n">
-        <v>672</v>
+        <v>2286.144000000059</v>
       </c>
       <c r="Q3" t="n">
-        <v>600.2070000000147</v>
+        <v>602.1540000000147</v>
       </c>
       <c r="R3" t="n">
-        <v>40.69200000000003</v>
+        <v>40.82400000000091</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -1637,34 +1754,34 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>457.7850000000146</v>
+        <v>459.2700000000146</v>
       </c>
       <c r="G4" t="n">
-        <v>2695.844999999986</v>
+        <v>677.88</v>
       </c>
       <c r="H4" t="n">
         <v>805.5599999999999</v>
       </c>
       <c r="I4" t="n">
-        <v>6147.040000000065</v>
+        <v>6161.04</v>
       </c>
       <c r="J4" t="n">
-        <v>5392.546266197262</v>
+        <v>2949.24309090909</v>
       </c>
       <c r="K4" t="n">
-        <v>978.6</v>
+        <v>978.6000000019521</v>
       </c>
       <c r="L4" t="n">
         <v>980.2800000000001</v>
       </c>
       <c r="M4" t="n">
-        <v>6262.120000000064</v>
+        <v>6276.120000000118</v>
       </c>
       <c r="N4" t="n">
-        <v>940.8</v>
+        <v>5419.386</v>
       </c>
       <c r="O4" t="n">
-        <v>925.6799999999974</v>
+        <v>925.6800000000001</v>
       </c>
       <c r="P4" t="n">
         <v>1018.26</v>
@@ -1795,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-6.196728463692125e-08</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1804,34 +1921,34 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>-1.434159457858186e-09</v>
       </c>
       <c r="F2" t="n">
-        <v>-9.502359503401819e-10</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>1136.744000001235</v>
+        <v>1165.947999999643</v>
       </c>
       <c r="I2" t="n">
-        <v>2586.960000003554</v>
+        <v>2635.190000002054</v>
       </c>
       <c r="J2" t="n">
-        <v>3536.198000000802</v>
+        <v>3595.936000000801</v>
       </c>
       <c r="K2" t="n">
-        <v>3570.37600000106</v>
+        <v>3631.477000000904</v>
       </c>
       <c r="L2" t="n">
-        <v>3000.680000001421</v>
+        <v>3055.23000000142</v>
       </c>
       <c r="M2" t="n">
-        <v>1975.874000005074</v>
+        <v>2016.552999999882</v>
       </c>
       <c r="N2" t="n">
-        <v>686.6240000014533</v>
+        <v>710.8379999993522</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -1881,40 +1998,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.061407615044585e-09</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1124.988000000001</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1863.004306701992</v>
       </c>
       <c r="I3" t="n">
-        <v>5323</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2129.012000001118</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2952.747984893365</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>4775.652</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>3332.993999999926</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1614.144000000059</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -1952,7 +2069,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>4.877801984548569e-08</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -1964,28 +2081,28 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>2017.964999999223</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>5323</v>
+        <v>5337</v>
       </c>
       <c r="J4" t="n">
-        <v>4541.626266197261</v>
+        <v>2098.323090909089</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>1.952116690517869e-09</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>5323</v>
+        <v>5337</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4478.586</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -2000,7 +2117,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>-4.813694947951433e-08</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -2012,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>-1.234002411365509e-08</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -2119,19 +2236,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1074.672787046611</v>
+        <v>1211.509999940508</v>
       </c>
       <c r="C2" t="n">
-        <v>896.26</v>
+        <v>896.2600000001985</v>
       </c>
       <c r="D2" t="n">
-        <v>838.6372129574071</v>
+        <v>821.8100000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>756.1700000000001</v>
+        <v>791.1700000000001</v>
       </c>
       <c r="F2" t="n">
-        <v>857.6200000000053</v>
+        <v>977.63</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -2158,37 +2275,37 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>237.5459999974744</v>
+        <v>468.4669999962935</v>
       </c>
       <c r="P2" t="n">
-        <v>1140.543999999999</v>
+        <v>914.722677207802</v>
       </c>
       <c r="Q2" t="n">
-        <v>1036.3</v>
+        <v>1191.31</v>
       </c>
       <c r="R2" t="n">
-        <v>1141.460000000005</v>
+        <v>1141.46</v>
       </c>
       <c r="S2" t="n">
-        <v>907.7562259052432</v>
+        <v>1144.01</v>
       </c>
       <c r="T2" t="n">
         <v>1289.76</v>
       </c>
       <c r="U2" t="n">
-        <v>1259.190000000006</v>
+        <v>1139.200000002828</v>
       </c>
       <c r="V2" t="n">
-        <v>1346.75</v>
+        <v>1226.740000000005</v>
       </c>
       <c r="W2" t="n">
         <v>1297.99</v>
       </c>
       <c r="X2" t="n">
-        <v>1020.119999704573</v>
+        <v>1140.13</v>
       </c>
       <c r="Y2" t="n">
-        <v>1064.459999999767</v>
+        <v>824.4599999999999</v>
       </c>
     </row>
     <row r="3">
@@ -2196,7 +2313,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>879.2999999987455</v>
+        <v>879.3</v>
       </c>
       <c r="C3" t="n">
         <v>811</v>
@@ -2205,7 +2322,7 @@
         <v>743.5</v>
       </c>
       <c r="E3" t="n">
-        <v>315.4599999966268</v>
+        <v>345.4700000011249</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -2241,10 +2358,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>220.0779999986116</v>
+        <v>245.1309999986116</v>
       </c>
       <c r="R3" t="n">
-        <v>891.8680000000001</v>
+        <v>891.7359999999992</v>
       </c>
       <c r="S3" t="n">
         <v>950.8</v>
@@ -2256,7 +2373,7 @@
         <v>1198.5</v>
       </c>
       <c r="V3" t="n">
-        <v>1173</v>
+        <v>1172.99999999897</v>
       </c>
       <c r="W3" t="n">
         <v>1129.8</v>
@@ -2276,16 +2393,16 @@
         <v>1150.35</v>
       </c>
       <c r="C4" t="n">
-        <v>1086.220000048778</v>
+        <v>1086.22</v>
       </c>
       <c r="D4" t="n">
-        <v>1021.5</v>
+        <v>1021.4999999974</v>
       </c>
       <c r="E4" t="n">
-        <v>966.9800000000284</v>
+        <v>1001.980000001178</v>
       </c>
       <c r="F4" t="n">
-        <v>403.45</v>
+        <v>381.8260000017326</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -2318,31 +2435,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>1263.34</v>
+        <v>1298.339999999767</v>
       </c>
       <c r="R4" t="n">
         <v>1258.22</v>
       </c>
       <c r="S4" t="n">
-        <v>1269.1099999521</v>
+        <v>1269.11</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.59</v>
+        <v>1424.590000000006</v>
       </c>
       <c r="U4" t="n">
-        <v>1520.979999999997</v>
+        <v>1517.019999999937</v>
       </c>
       <c r="V4" t="n">
-        <v>1498.26</v>
+        <v>1498.259999999294</v>
       </c>
       <c r="W4" t="n">
-        <v>1456.45</v>
+        <v>1456.449999990962</v>
       </c>
       <c r="X4" t="n">
         <v>1306.93</v>
       </c>
       <c r="Y4" t="n">
-        <v>1236.82</v>
+        <v>1236.819999999997</v>
       </c>
     </row>
   </sheetData>
@@ -2443,76 +2560,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>7640.912336320787</v>
+        <v>7791.690909092154</v>
       </c>
       <c r="C2" t="n">
-        <v>6735.599205007656</v>
+        <v>6886.377777778822</v>
       </c>
       <c r="D2" t="n">
-        <v>5888.490909090967</v>
+        <v>6056.266666667711</v>
       </c>
       <c r="E2" t="n">
-        <v>5124.682828282886</v>
+        <v>5257.105050504675</v>
       </c>
       <c r="F2" t="n">
-        <v>4258.39999999883</v>
+        <v>4269.6</v>
       </c>
       <c r="G2" t="n">
-        <v>4258.39999999883</v>
+        <v>4269.6</v>
       </c>
       <c r="H2" t="n">
-        <v>5383.776560000053</v>
+        <v>5423.888520000499</v>
       </c>
       <c r="I2" t="n">
-        <v>7944.866960003571</v>
+        <v>8032.726620002531</v>
       </c>
       <c r="J2" t="n">
-        <v>11445.70298000437</v>
+        <v>11592.70326000332</v>
       </c>
       <c r="K2" t="n">
-        <v>14980.37522000525</v>
+        <v>15187.86549000422</v>
       </c>
       <c r="L2" t="n">
-        <v>17951.04842000666</v>
+        <v>18212.54319000563</v>
       </c>
       <c r="M2" t="n">
-        <v>19907.16368001085</v>
+        <v>20208.93066000551</v>
       </c>
       <c r="N2" t="n">
-        <v>20586.92144001132</v>
+        <v>20912.66028000487</v>
       </c>
       <c r="O2" t="n">
-        <v>20346.97598546842</v>
+        <v>20439.46129010962</v>
       </c>
       <c r="P2" t="n">
-        <v>19194.91133900377</v>
+        <v>19515.498989899</v>
       </c>
       <c r="Q2" t="n">
-        <v>18148.1436622361</v>
+        <v>18312.15555555556</v>
       </c>
       <c r="R2" t="n">
-        <v>16995.15376324619</v>
+        <v>17159.16565656567</v>
       </c>
       <c r="S2" t="n">
-        <v>16078.22828253382</v>
+        <v>16003.6</v>
       </c>
       <c r="T2" t="n">
-        <v>14775.44040374595</v>
+        <v>14700.81212121069</v>
       </c>
       <c r="U2" t="n">
-        <v>13503.53131283685</v>
+        <v>13550.10505050506</v>
       </c>
       <c r="V2" t="n">
-        <v>12143.17777748331</v>
+        <v>12310.97373737374</v>
       </c>
       <c r="W2" t="n">
-        <v>10832.0767673823</v>
+        <v>10999.87272727273</v>
       </c>
       <c r="X2" t="n">
-        <v>9801.652525256472</v>
+        <v>9848.226262626264</v>
       </c>
       <c r="Y2" t="n">
-        <v>8726.440404044355</v>
+        <v>9015.438383838384</v>
       </c>
     </row>
     <row r="3">
@@ -2520,76 +2637,76 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6147.248484845069</v>
+        <v>6189.56161616275</v>
       </c>
       <c r="C3" t="n">
-        <v>5328.05656565315</v>
+        <v>5370.369696970831</v>
       </c>
       <c r="D3" t="n">
-        <v>4577.046464643056</v>
+        <v>4619.359595960732</v>
       </c>
       <c r="E3" t="n">
-        <v>4258.39999999883</v>
+        <v>4270.4</v>
       </c>
       <c r="F3" t="n">
-        <v>5372.13811999883</v>
+        <v>4270.4</v>
       </c>
       <c r="G3" t="n">
-        <v>5372.13811999883</v>
+        <v>4270.4</v>
       </c>
       <c r="H3" t="n">
-        <v>5372.13811999883</v>
+        <v>6114.774263634973</v>
       </c>
       <c r="I3" t="n">
-        <v>10641.90811999889</v>
+        <v>6114.774263634973</v>
       </c>
       <c r="J3" t="n">
-        <v>12749.63</v>
+        <v>6114.774263634259</v>
       </c>
       <c r="K3" t="n">
-        <v>12749.63</v>
+        <v>6114.774263634973</v>
       </c>
       <c r="L3" t="n">
-        <v>15672.85050504443</v>
+        <v>6114.774263634973</v>
       </c>
       <c r="M3" t="n">
-        <v>15672.85050504443</v>
+        <v>6114.774263634973</v>
       </c>
       <c r="N3" t="n">
-        <v>15672.85050504443</v>
+        <v>10842.66974363497</v>
       </c>
       <c r="O3" t="n">
-        <v>15672.85050504443</v>
+        <v>14142.3338036349</v>
       </c>
       <c r="P3" t="n">
-        <v>15672.85050504443</v>
+        <v>15740.33636363496</v>
       </c>
       <c r="Q3" t="n">
-        <v>15450.54949494481</v>
+        <v>15492.72929292929</v>
       </c>
       <c r="R3" t="n">
-        <v>14549.67272726804</v>
+        <v>14591.98585858586</v>
       </c>
       <c r="S3" t="n">
-        <v>13589.268686864</v>
+        <v>13631.58181818182</v>
       </c>
       <c r="T3" t="n">
-        <v>12474.62222221754</v>
+        <v>12516.93535353535</v>
       </c>
       <c r="U3" t="n">
-        <v>11264.01616161148</v>
+        <v>11306.32929292929</v>
       </c>
       <c r="V3" t="n">
-        <v>10079.16767676299</v>
+        <v>10121.4808080816</v>
       </c>
       <c r="W3" t="n">
-        <v>8937.955555550872</v>
+        <v>8980.26868686982</v>
       </c>
       <c r="X3" t="n">
-        <v>7950.581818177136</v>
+        <v>7992.894949496083</v>
       </c>
       <c r="Y3" t="n">
-        <v>7035.430303025621</v>
+        <v>7077.743434344568</v>
       </c>
     </row>
     <row r="4">
@@ -2597,76 +2714,76 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>7771.682828283805</v>
+        <v>7796.393939394255</v>
       </c>
       <c r="C4" t="n">
-        <v>6674.490909090905</v>
+        <v>6699.202020202335</v>
       </c>
       <c r="D4" t="n">
-        <v>5642.672727272728</v>
+        <v>5667.38383838678</v>
       </c>
       <c r="E4" t="n">
-        <v>4665.925252525252</v>
+        <v>4655.282828284579</v>
       </c>
       <c r="F4" t="n">
-        <v>4258.4</v>
+        <v>4269.6</v>
       </c>
       <c r="G4" t="n">
-        <v>6256.185350000001</v>
+        <v>4269.6</v>
       </c>
       <c r="H4" t="n">
-        <v>6256.185350000001</v>
+        <v>4269.6</v>
       </c>
       <c r="I4" t="n">
-        <v>11525.95535000007</v>
+        <v>9553.229999999076</v>
       </c>
       <c r="J4" t="n">
-        <v>16022.16535353535</v>
+        <v>11630.56985999807</v>
       </c>
       <c r="K4" t="n">
-        <v>16022.16535353529</v>
+        <v>11630.56986</v>
       </c>
       <c r="L4" t="n">
-        <v>16022.16535353529</v>
+        <v>11630.56986</v>
       </c>
       <c r="M4" t="n">
-        <v>21291.93535353535</v>
+        <v>16914.19986</v>
       </c>
       <c r="N4" t="n">
-        <v>21291.93535353535</v>
+        <v>21348</v>
       </c>
       <c r="O4" t="n">
-        <v>21291.93535353535</v>
+        <v>21348</v>
       </c>
       <c r="P4" t="n">
-        <v>21291.93535353535</v>
+        <v>21348</v>
       </c>
       <c r="Q4" t="n">
-        <v>20015.83434343435</v>
+        <v>20036.54545454546</v>
       </c>
       <c r="R4" t="n">
-        <v>18744.90505050505</v>
+        <v>18765.61616161617</v>
       </c>
       <c r="S4" t="n">
-        <v>17462.97575757673</v>
+        <v>17483.68686868688</v>
       </c>
       <c r="T4" t="n">
-        <v>16023.99595959693</v>
+        <v>16044.70707070707</v>
       </c>
       <c r="U4" t="n">
-        <v>14487.6525252535</v>
+        <v>14512.3636363637</v>
       </c>
       <c r="V4" t="n">
-        <v>12974.25858585956</v>
+        <v>12998.96969696976</v>
       </c>
       <c r="W4" t="n">
-        <v>11503.09696969794</v>
+        <v>11527.80808080839</v>
       </c>
       <c r="X4" t="n">
-        <v>10182.96565656663</v>
+        <v>10207.67676767708</v>
       </c>
       <c r="Y4" t="n">
-        <v>8933.652525253499</v>
+        <v>8958.363636363953</v>
       </c>
     </row>
     <row r="5">
@@ -6355,10 +6472,10 @@
         <v>349.095000000787</v>
       </c>
       <c r="L2" t="n">
-        <v>268.7700000010664</v>
+        <v>268.7700000011828</v>
       </c>
       <c r="M2" t="n">
-        <v>116.535000002965</v>
+        <v>116.5350000022445</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -6682,13 +6799,13 @@
         <v>118.8800000002375</v>
       </c>
       <c r="M2" t="n">
-        <v>84.32000000204425</v>
+        <v>84.31999999999998</v>
       </c>
       <c r="N2" t="n">
-        <v>42.56000000000001</v>
+        <v>42.55999999932465</v>
       </c>
       <c r="O2" t="n">
-        <v>4.800000003073364</v>
+        <v>4.800000003691821</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -6735,7 +6852,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>2.000000002174406</v>
+        <v>1.99999999886785</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -6886,7 +7003,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6895,30 +7012,77 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Total Revenues</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Total Capital Costs</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Total Operation Variable Costs</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Total Operation Fixed Costs</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Total Profits</t>
-        </is>
+      <c r="B1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="2">
@@ -6926,19 +7090,230 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3375173.5539622</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>426520.526903619</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>187210</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>2019143.341338841</v>
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>8</v>
+      </c>
+      <c r="H2" t="n">
+        <v>23</v>
+      </c>
+      <c r="I2" t="n">
+        <v>38</v>
+      </c>
+      <c r="J2" t="n">
+        <v>47</v>
+      </c>
+      <c r="K2" t="n">
+        <v>48</v>
+      </c>
+      <c r="L2" t="n">
+        <v>43</v>
+      </c>
+      <c r="M2" t="n">
+        <v>31.99999999757847</v>
+      </c>
+      <c r="N2" t="n">
+        <v>19</v>
+      </c>
+      <c r="O2" t="n">
+        <v>7</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>5</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
